--- a/1. data/Barkley Sockeye time series of returns.xlsx
+++ b/1. data/Barkley Sockeye time series of returns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://086gc.sharepoint.com/sites/SalmonScienceStrategy-salmonFSAR/Shared Documents/salmon FSAR - sprint week/Barkley Sockeye/3. Data/Stock-recruit data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B9AD97-FBBF-4333-8282-76AB4F193780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="758" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2EF2ED4-E85B-4F51-8ED5-A839A73EFB37}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sources notes" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="117">
   <si>
     <t>GCL</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>R-OUT_2024_Area23_full-sk-biodata_2024-11-19.csv (N. Brown)</t>
+  </si>
+  <si>
+    <t>hatchery reports</t>
   </si>
 </sst>
 </file>
@@ -1046,9 +1049,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J663"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H86:H100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H667" sqref="H667"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2548,7 +2551,7 @@
         <v>18227.413567931726</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H100" t="s">
         <v>78</v>
@@ -2580,7 +2583,7 @@
         <v>331492.68240361265</v>
       </c>
       <c r="G101" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H101" t="s">
         <v>78</v>
@@ -2612,7 +2615,7 @@
         <v>2584.2883441252047</v>
       </c>
       <c r="G102" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H102" t="s">
         <v>78</v>
@@ -2644,7 +2647,7 @@
         <v>332408.81384317484</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H103" t="s">
         <v>78</v>
@@ -2676,7 +2679,7 @@
         <v>74698.732955407017</v>
       </c>
       <c r="G104" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H104" t="s">
         <v>78</v>
@@ -2708,7 +2711,7 @@
         <v>34892.425560700605</v>
       </c>
       <c r="G105" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H105" t="s">
         <v>78</v>
@@ -2740,7 +2743,7 @@
         <v>7113.0806653910067</v>
       </c>
       <c r="G106" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H106" t="s">
         <v>78</v>
@@ -2772,7 +2775,7 @@
         <v>126531.3399274906</v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H107" t="s">
         <v>78</v>
@@ -2804,7 +2807,7 @@
         <v>960.47621643166997</v>
       </c>
       <c r="G108" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H108" t="s">
         <v>78</v>
@@ -2836,7 +2839,7 @@
         <v>126329.45533394575</v>
       </c>
       <c r="G109" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H109" t="s">
         <v>78</v>
@@ -2868,7 +2871,7 @@
         <v>28291.348265977649</v>
       </c>
       <c r="G110" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H110" t="s">
         <v>78</v>
@@ -2900,7 +2903,7 @@
         <v>13223.83785342181</v>
       </c>
       <c r="G111" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H111" t="s">
         <v>78</v>
@@ -2932,7 +2935,7 @@
         <v>4852.7106408946993</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H112" t="s">
         <v>78</v>
@@ -2964,7 +2967,7 @@
         <v>52626.006382767264</v>
       </c>
       <c r="G113" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H113" t="s">
         <v>78</v>
@@ -2996,7 +2999,7 @@
         <v>505.21348802497369</v>
       </c>
       <c r="G114" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H114" t="s">
         <v>78</v>
@@ -3028,7 +3031,7 @@
         <v>66610.574208923455</v>
       </c>
       <c r="G115" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H115" t="s">
         <v>78</v>
@@ -3060,7 +3063,7 @@
         <v>13917.228747380421</v>
       </c>
       <c r="G116" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H116" t="s">
         <v>78</v>
@@ -3092,7 +3095,7 @@
         <v>7019.2984317250712</v>
       </c>
       <c r="G117" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H117" t="s">
         <v>78</v>
@@ -3124,7 +3127,7 @@
         <v>1005.481013342662</v>
       </c>
       <c r="G118" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H118" t="s">
         <v>78</v>
@@ -3156,7 +3159,7 @@
         <v>18503.403639903867</v>
       </c>
       <c r="G119" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H119" t="s">
         <v>78</v>
@@ -3188,7 +3191,7 @@
         <v>90.462079069437266</v>
       </c>
       <c r="G120" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H120" t="s">
         <v>78</v>
@@ -3220,7 +3223,7 @@
         <v>21792.340945255241</v>
       </c>
       <c r="G121" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H121" t="s">
         <v>78</v>
@@ -3252,7 +3255,7 @@
         <v>4069.5250016077166</v>
       </c>
       <c r="G122" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H122" t="s">
         <v>78</v>
@@ -3284,7 +3287,7 @@
         <v>2243.4524977384435</v>
       </c>
       <c r="G123" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H123" t="s">
         <v>78</v>
@@ -3316,7 +3319,7 @@
         <v>14151.589400801147</v>
       </c>
       <c r="G124" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H124" t="s">
         <v>78</v>
@@ -3348,7 +3351,7 @@
         <v>231888.977058519</v>
       </c>
       <c r="G125" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H125" t="s">
         <v>78</v>
@@ -3380,7 +3383,7 @@
         <v>1935.2646319902863</v>
       </c>
       <c r="G126" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H126" t="s">
         <v>78</v>
@@ -3412,7 +3415,7 @@
         <v>218523.46892550075</v>
       </c>
       <c r="G127" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H127" t="s">
         <v>78</v>
@@ -3444,7 +3447,7 @@
         <v>51329.6267721029</v>
       </c>
       <c r="G128" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H128" t="s">
         <v>78</v>
@@ -3476,7 +3479,7 @@
         <v>23134.354909749345</v>
       </c>
       <c r="G129" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H129" t="s">
         <v>78</v>
@@ -3508,7 +3511,7 @@
         <v>4937.6903790714396</v>
       </c>
       <c r="G130" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H130" t="s">
         <v>78</v>
@@ -3540,7 +3543,7 @@
         <v>66254.468675914773</v>
       </c>
       <c r="G131" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H131" t="s">
         <v>78</v>
@@ -3572,7 +3575,7 @@
         <v>569.48616137572492</v>
       </c>
       <c r="G132" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H132" t="s">
         <v>78</v>
@@ -3604,7 +3607,7 @@
         <v>63428.321923659096</v>
       </c>
       <c r="G133" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H133" t="s">
         <v>78</v>
@@ -3636,7 +3639,7 @@
         <v>14820.10041616484</v>
       </c>
       <c r="G134" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H134" t="s">
         <v>78</v>
@@ -3668,7 +3671,7 @@
         <v>6638.6531875252658</v>
       </c>
       <c r="G135" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H135" t="s">
         <v>78</v>
@@ -3700,7 +3703,7 @@
         <v>8741.8233709328597</v>
       </c>
       <c r="G136" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H136" t="s">
         <v>79</v>
@@ -3732,7 +3735,7 @@
         <v>171449.11775562481</v>
       </c>
       <c r="G137" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H137" t="s">
         <v>79</v>
@@ -3764,7 +3767,7 @@
         <v>1184.3838459816957</v>
       </c>
       <c r="G138" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H138" t="s">
         <v>79</v>
@@ -3796,7 +3799,7 @@
         <v>182370.93078170207</v>
       </c>
       <c r="G139" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H139" t="s">
         <v>79</v>
@@ -3828,7 +3831,7 @@
         <v>39294.847379277948</v>
       </c>
       <c r="G140" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H140" t="s">
         <v>79</v>
@@ -3860,7 +3863,7 @@
         <v>18815.152777425268</v>
       </c>
       <c r="G141" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H141" t="s">
         <v>79</v>
@@ -3892,7 +3895,7 @@
         <v>4982.8384970879915</v>
       </c>
       <c r="G142" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H142" t="s">
         <v>79</v>
@@ -3924,7 +3927,7 @@
         <v>93651.800190535374</v>
       </c>
       <c r="G143" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H143" t="s">
         <v>79</v>
@@ -3956,7 +3959,7 @@
         <v>638.73687074028066</v>
       </c>
       <c r="G144" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H144" t="s">
         <v>79</v>
@@ -3988,7 +3991,7 @@
         <v>96968.471929796026</v>
       </c>
       <c r="G145" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H145" t="s">
         <v>79</v>
@@ -4020,7 +4023,7 @@
         <v>20597.095631125045</v>
       </c>
       <c r="G146" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H146" t="s">
         <v>79</v>
@@ -4052,7 +4055,7 @@
         <v>10094.054249890149</v>
       </c>
       <c r="G147" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H147" t="s">
         <v>79</v>
@@ -4084,7 +4087,7 @@
         <v>12813.561735348043</v>
       </c>
       <c r="G148" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H148" t="s">
         <v>79</v>
@@ -4116,7 +4119,7 @@
         <v>230622.52963454736</v>
       </c>
       <c r="G149" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H149" t="s">
         <v>79</v>
@@ -4148,7 +4151,7 @@
         <v>1720.1413988234976</v>
       </c>
       <c r="G150" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H150" t="s">
         <v>79</v>
@@ -4180,7 +4183,7 @@
         <v>236515.56049280643</v>
       </c>
       <c r="G151" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H151" t="s">
         <v>79</v>
@@ -4212,7 +4215,7 @@
         <v>51184.109413519269</v>
       </c>
       <c r="G152" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H152" t="s">
         <v>79</v>
@@ -4244,7 +4247,7 @@
         <v>24683.485982417478</v>
       </c>
       <c r="G153" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H153" t="s">
         <v>79</v>
@@ -4276,7 +4279,7 @@
         <v>8662.5958500839442</v>
       </c>
       <c r="G154" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H154" t="s">
         <v>79</v>
@@ -4308,7 +4311,7 @@
         <v>150391.81703211847</v>
       </c>
       <c r="G155" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H155" t="s">
         <v>79</v>
@@ -4340,7 +4343,7 @@
         <v>1184.0173440890558</v>
       </c>
       <c r="G156" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H156" t="s">
         <v>79</v>
@@ -4372,7 +4375,7 @@
         <v>153992.18325885473</v>
       </c>
       <c r="G157" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H157" t="s">
         <v>79</v>
@@ -4404,7 +4407,7 @@
         <v>33330.821564507001</v>
       </c>
       <c r="G158" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H158" t="s">
         <v>79</v>
@@ -4436,7 +4439,7 @@
         <v>16017.494274121766</v>
       </c>
       <c r="G159" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H159" t="s">
         <v>79</v>
@@ -4468,7 +4471,7 @@
         <v>4385.4875994898357</v>
       </c>
       <c r="G160" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H160" t="s">
         <v>79</v>
@@ -4500,7 +4503,7 @@
         <v>72183.967579948905</v>
       </c>
       <c r="G161" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H161" t="s">
         <v>79</v>
@@ -4532,7 +4535,7 @@
         <v>552.37615901682693</v>
       </c>
       <c r="G162" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H162" t="s">
         <v>79</v>
@@ -4564,7 +4567,7 @@
         <v>82876.963446566646</v>
       </c>
       <c r="G163" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H163" t="s">
         <v>79</v>
@@ -4596,7 +4599,7 @@
         <v>16633.421923619157</v>
       </c>
       <c r="G164" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H164" t="s">
         <v>79</v>
@@ -4628,7 +4631,7 @@
         <v>8453.4469915325135</v>
       </c>
       <c r="G165" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H165" t="s">
         <v>79</v>
@@ -4660,7 +4663,7 @@
         <v>6316.7706829668077</v>
       </c>
       <c r="G166" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H166" t="s">
         <v>79</v>
@@ -4692,7 +4695,7 @@
         <v>103879.46141404404</v>
       </c>
       <c r="G167" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H167" t="s">
         <v>79</v>
@@ -4724,7 +4727,7 @@
         <v>633.38527389943499</v>
       </c>
       <c r="G168" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H168" t="s">
         <v>79</v>
@@ -4756,7 +4759,7 @@
         <v>111329.05107660916</v>
       </c>
       <c r="G169" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H169" t="s">
         <v>79</v>
@@ -4788,7 +4791,7 @@
         <v>23055.820157082482</v>
       </c>
       <c r="G170" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H170" t="s">
         <v>79</v>
@@ -4820,7 +4823,7 @@
         <v>11338.875358352332</v>
       </c>
       <c r="G171" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H171" t="s">
         <v>79</v>
@@ -4852,7 +4855,7 @@
         <v>11957.455497881961</v>
       </c>
       <c r="G172" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H172" t="s">
         <v>79</v>
@@ -4884,7 +4887,7 @@
         <v>214344.75044877784</v>
       </c>
       <c r="G173" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H173" t="s">
         <v>79</v>
@@ -4916,7 +4919,7 @@
         <v>1638.863971317028</v>
       </c>
       <c r="G174" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H174" t="s">
         <v>79</v>
@@ -4948,7 +4951,7 @@
         <v>211331.51091890014</v>
       </c>
       <c r="G175" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H175" t="s">
         <v>79</v>
@@ -4980,7 +4983,7 @@
         <v>46635.637165848646</v>
       </c>
       <c r="G176" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H176" t="s">
         <v>79</v>
@@ -5012,7 +5015,7 @@
         <v>22120.085478397494</v>
       </c>
       <c r="G177" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H177" t="s">
         <v>79</v>
@@ -5044,7 +5047,7 @@
         <v>9291.2884678487244</v>
       </c>
       <c r="G178" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H178" t="s">
         <v>79</v>
@@ -5076,7 +5079,7 @@
         <v>158419.11006163663</v>
       </c>
       <c r="G179" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H179" t="s">
         <v>79</v>
@@ -5108,7 +5111,7 @@
         <v>1273.1328333784609</v>
       </c>
       <c r="G180" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H180" t="s">
         <v>79</v>
@@ -5140,7 +5143,7 @@
         <v>156036.11502090702</v>
       </c>
       <c r="G181" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H181" t="s">
         <v>79</v>
@@ -5172,7 +5175,7 @@
         <v>34526.176156923604</v>
       </c>
       <c r="G182" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H182" t="s">
         <v>79</v>
@@ -5204,7 +5207,7 @@
         <v>16124.428130304044</v>
       </c>
       <c r="G183" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H183" t="s">
         <v>79</v>
@@ -5236,7 +5239,7 @@
         <v>3922.9156707572961</v>
       </c>
       <c r="G184" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H184" t="s">
         <v>86</v>
@@ -5268,7 +5271,7 @@
         <v>163459.41554513111</v>
       </c>
       <c r="G185" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H185" t="s">
         <v>86</v>
@@ -5300,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="G186" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H186" t="s">
         <v>86</v>
@@ -5332,7 +5335,7 @@
         <v>297781.30519335077</v>
       </c>
       <c r="G187" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H187" t="s">
         <v>86</v>
@@ -5364,7 +5367,7 @@
         <v>40725.778978910595</v>
       </c>
       <c r="G188" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H188" t="s">
         <v>86</v>
@@ -5396,7 +5399,7 @@
         <v>12945.3532927089</v>
       </c>
       <c r="G189" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H189" t="s">
         <v>86</v>
@@ -5428,7 +5431,7 @@
         <v>7251.1819492944051</v>
       </c>
       <c r="G190" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H190" t="s">
         <v>86</v>
@@ -5460,7 +5463,7 @@
         <v>211701.84854503811</v>
       </c>
       <c r="G191" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H191" t="s">
         <v>86</v>
@@ -5492,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H192" t="s">
         <v>86</v>
@@ -5524,7 +5527,7 @@
         <v>149451.56139251011</v>
       </c>
       <c r="G193" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H193" t="s">
         <v>86</v>
@@ -5556,7 +5559,7 @@
         <v>32904.42057291697</v>
       </c>
       <c r="G194" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H194" t="s">
         <v>86</v>
@@ -5588,7 +5591,7 @@
         <v>19640.218859381792</v>
       </c>
       <c r="G195" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H195" t="s">
         <v>86</v>
@@ -5620,7 +5623,7 @@
         <v>9872.6705855467499</v>
       </c>
       <c r="G196" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H196" t="s">
         <v>86</v>
@@ -5652,7 +5655,7 @@
         <v>89970.55921694405</v>
       </c>
       <c r="G197" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H197" t="s">
         <v>86</v>
@@ -5684,7 +5687,7 @@
         <v>5714.3393546139087</v>
       </c>
       <c r="G198" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H198" t="s">
         <v>86</v>
@@ -5716,7 +5719,7 @@
         <v>165580.93702823977</v>
       </c>
       <c r="G199" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H199" t="s">
         <v>86</v>
@@ -5748,7 +5751,7 @@
         <v>17765.096578689783</v>
       </c>
       <c r="G200" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H200" t="s">
         <v>86</v>
@@ -5780,7 +5783,7 @@
         <v>28696.315640700679</v>
       </c>
       <c r="G201" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H201" t="s">
         <v>86</v>
@@ -5812,7 +5815,7 @@
         <v>11420.06511027717</v>
       </c>
       <c r="G202" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H202" t="s">
         <v>86</v>
@@ -5844,7 +5847,7 @@
         <v>68116.864308526405</v>
       </c>
       <c r="G203" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H203" t="s">
         <v>86</v>
@@ -5876,7 +5879,7 @@
         <v>967.96298444808463</v>
       </c>
       <c r="G204" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H204" t="s">
         <v>86</v>
@@ -5908,7 +5911,7 @@
         <v>49948.285482476509</v>
       </c>
       <c r="G205" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H205" t="s">
         <v>86</v>
@@ -5940,7 +5943,7 @@
         <v>7163.145773291184</v>
       </c>
       <c r="G206" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H206" t="s">
         <v>86</v>
@@ -5972,7 +5975,7 @@
         <v>2352.6572232188714</v>
       </c>
       <c r="G207" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H207" t="s">
         <v>86</v>
@@ -6004,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H208" t="s">
         <v>86</v>
@@ -6036,7 +6039,7 @@
         <v>2775.3252074331208</v>
       </c>
       <c r="G209" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H209" t="s">
         <v>86</v>
@@ -6068,7 +6071,7 @@
         <v>17.530590798671945</v>
       </c>
       <c r="G210" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H210" t="s">
         <v>86</v>
@@ -6100,7 +6103,7 @@
         <v>6503.54405407578</v>
       </c>
       <c r="G211" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H211" t="s">
         <v>86</v>
@@ -6132,7 +6135,7 @@
         <v>540.50570289637517</v>
       </c>
       <c r="G212" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H212" t="s">
         <v>86</v>
@@ -6164,7 +6167,7 @@
         <v>478.83595773052991</v>
       </c>
       <c r="G213" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H213" t="s">
         <v>86</v>
@@ -6196,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H214" t="s">
         <v>86</v>
@@ -6228,7 +6231,7 @@
         <v>10278.088253051208</v>
       </c>
       <c r="G215" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H215" t="s">
         <v>86</v>
@@ -6260,7 +6263,7 @@
         <v>25.751631423550275</v>
       </c>
       <c r="G216" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H216" t="s">
         <v>86</v>
@@ -6292,7 +6295,7 @@
         <v>32773.893960424102</v>
       </c>
       <c r="G217" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H217" t="s">
         <v>86</v>
@@ -6324,7 +6327,7 @@
         <v>2747.8839557221618</v>
       </c>
       <c r="G218" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H218" t="s">
         <v>86</v>
@@ -6356,7 +6359,7 @@
         <v>776.64068644450549</v>
       </c>
       <c r="G219" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H219" t="s">
         <v>86</v>
@@ -6388,7 +6391,7 @@
         <v>3621.2632530121391</v>
       </c>
       <c r="G220" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H220" t="s">
         <v>86</v>
@@ -6420,7 +6423,7 @@
         <v>61930.977722131414</v>
       </c>
       <c r="G221" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H221" t="s">
         <v>86</v>
@@ -6452,7 +6455,7 @@
         <v>1449.1517988260325</v>
       </c>
       <c r="G222" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H222" t="s">
         <v>86</v>
@@ -6484,7 +6487,7 @@
         <v>3217.0997086238362</v>
       </c>
       <c r="G223" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H223" t="s">
         <v>86</v>
@@ -6516,7 +6519,7 @@
         <v>7827.2085275963282</v>
       </c>
       <c r="G224" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H224" t="s">
         <v>86</v>
@@ -6548,7 +6551,7 @@
         <v>4971.7011284687915</v>
       </c>
       <c r="G225" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H225" t="s">
         <v>86</v>
@@ -6580,7 +6583,7 @@
         <v>37217.215401371708</v>
       </c>
       <c r="G226" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H226" t="s">
         <v>86</v>
@@ -6612,7 +6615,7 @@
         <v>97145.531051448546</v>
       </c>
       <c r="G227" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H227" t="s">
         <v>86</v>
@@ -6644,7 +6647,7 @@
         <v>4534.6829452482225</v>
       </c>
       <c r="G228" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H228" t="s">
         <v>86</v>
@@ -6676,7 +6679,7 @@
         <v>14191.095490120413</v>
       </c>
       <c r="G229" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H229" t="s">
         <v>86</v>
@@ -6708,7 +6711,7 @@
         <v>17854.447141101922</v>
       </c>
       <c r="G230" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H230" t="s">
         <v>86</v>
@@ -6740,7 +6743,7 @@
         <v>422.62583205061082</v>
       </c>
       <c r="G231" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H231" t="s">
         <v>86</v>
@@ -6772,7 +6775,7 @@
         <v>3339.2018304202261</v>
       </c>
       <c r="G232" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H232" t="s">
         <v>86</v>
@@ -6804,7 +6807,7 @@
         <v>57344.145387657671</v>
       </c>
       <c r="G233" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H233" t="s">
         <v>86</v>
@@ -6836,7 +6839,7 @@
         <v>502.61895808317564</v>
       </c>
       <c r="G234" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H234" t="s">
         <v>86</v>
@@ -6868,7 +6871,7 @@
         <v>61105.90566759176</v>
       </c>
       <c r="G235" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H235" t="s">
         <v>86</v>
@@ -6900,7 +6903,7 @@
         <v>21668.853295091703</v>
       </c>
       <c r="G236" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H236" t="s">
         <v>86</v>
@@ -6932,7 +6935,7 @@
         <v>2872.2992921317077</v>
       </c>
       <c r="G237" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H237" t="s">
         <v>86</v>
@@ -6964,7 +6967,7 @@
         <v>2708.7083493931427</v>
       </c>
       <c r="G238" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H238" t="s">
         <v>86</v>
@@ -6996,7 +6999,7 @@
         <v>97386.531994692457</v>
       </c>
       <c r="G239" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H239" t="s">
         <v>86</v>
@@ -7028,7 +7031,7 @@
         <v>552.14185157979659</v>
       </c>
       <c r="G240" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H240" t="s">
         <v>86</v>
@@ -7060,7 +7063,7 @@
         <v>43184.299495687977</v>
       </c>
       <c r="G241" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H241" t="s">
         <v>86</v>
@@ -7092,7 +7095,7 @@
         <v>31820.729954511426</v>
       </c>
       <c r="G242" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H242" t="s">
         <v>86</v>
@@ -7124,7 +7127,7 @@
         <v>2618.1555231589746</v>
       </c>
       <c r="G243" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H243" t="s">
         <v>86</v>
@@ -7156,7 +7159,7 @@
         <v>2129.4465859840652</v>
       </c>
       <c r="G244" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H244" t="s">
         <v>86</v>
@@ -7188,7 +7191,7 @@
         <v>9055.2957087368941</v>
       </c>
       <c r="G245" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H245" t="s">
         <v>86</v>
@@ -7220,7 +7223,7 @@
         <v>181.73083811299404</v>
       </c>
       <c r="G246" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H246" t="s">
         <v>86</v>
@@ -7252,7 +7255,7 @@
         <v>2828.4086103025029</v>
       </c>
       <c r="G247" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H247" t="s">
         <v>86</v>
@@ -7284,7 +7287,7 @@
         <v>278.78641360252601</v>
       </c>
       <c r="G248" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H248" t="s">
         <v>86</v>
@@ -7316,7 +7319,7 @@
         <v>450.33271852366653</v>
       </c>
       <c r="G249" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H249" t="s">
         <v>86</v>
@@ -7348,7 +7351,7 @@
         <v>1552.3676342454896</v>
       </c>
       <c r="G250" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H250" t="s">
         <v>86</v>
@@ -7380,7 +7383,7 @@
         <v>7479.9448128556478</v>
       </c>
       <c r="G251" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H251" t="s">
         <v>86</v>
@@ -7412,7 +7415,7 @@
         <v>84.419761887005961</v>
       </c>
       <c r="G252" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H252" t="s">
         <v>86</v>
@@ -7444,7 +7447,7 @@
         <v>3217.9618103574685</v>
       </c>
       <c r="G253" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H253" t="s">
         <v>86</v>
@@ -7476,7 +7479,7 @@
         <v>227.68088345629752</v>
       </c>
       <c r="G254" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H254" t="s">
         <v>86</v>
@@ -7508,7 +7511,7 @@
         <v>841.09559693544384</v>
       </c>
       <c r="G255" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H255" t="s">
         <v>86</v>
@@ -7540,7 +7543,7 @@
         <v>831.82978867327506</v>
       </c>
       <c r="G256" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H256" t="s">
         <v>86</v>
@@ -7572,7 +7575,7 @@
         <v>8379.4092924255619</v>
       </c>
       <c r="G257" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H257" t="s">
         <v>86</v>
@@ -7604,7 +7607,7 @@
         <v>49.821758822385476</v>
       </c>
       <c r="G258" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H258" t="s">
         <v>86</v>
@@ -7636,7 +7639,7 @@
         <v>4675.6603716140271</v>
       </c>
       <c r="G259" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H259" t="s">
         <v>86</v>
@@ -7668,7 +7671,7 @@
         <v>4967.8457685769263</v>
       </c>
       <c r="G260" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H260" t="s">
         <v>86</v>
@@ -7700,7 +7703,7 @@
         <v>448.63676676394709</v>
       </c>
       <c r="G261" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H261" t="s">
         <v>86</v>
@@ -7732,7 +7735,7 @@
         <v>1322.5880632448734</v>
       </c>
       <c r="G262" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H262" t="s">
         <v>86</v>
@@ -7764,7 +7767,7 @@
         <v>10410.181913696766</v>
       </c>
       <c r="G263" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H263" t="s">
         <v>86</v>
@@ -7796,7 +7799,7 @@
         <v>107.39954213459066</v>
       </c>
       <c r="G264" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H264" t="s">
         <v>86</v>
@@ -7828,7 +7831,7 @@
         <v>3753.3815584724898</v>
       </c>
       <c r="G265" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H265" t="s">
         <v>86</v>
@@ -7860,7 +7863,7 @@
         <v>1484.6195744939</v>
       </c>
       <c r="G266" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H266" t="s">
         <v>86</v>
@@ -7892,7 +7895,7 @@
         <v>157.62560108125501</v>
       </c>
       <c r="G267" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H267" t="s">
         <v>86</v>
@@ -7924,7 +7927,7 @@
         <v>15296.15967912087</v>
       </c>
       <c r="G268" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H268" t="s">
         <v>86</v>
@@ -7956,7 +7959,7 @@
         <v>677657.72402788326</v>
       </c>
       <c r="G269" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H269" t="s">
         <v>86</v>
@@ -7988,7 +7991,7 @@
         <v>8721.4201199601648</v>
       </c>
       <c r="G270" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H270" t="s">
         <v>86</v>
@@ -8020,7 +8023,7 @@
         <v>89351.274511664917</v>
       </c>
       <c r="G271" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H271" t="s">
         <v>86</v>
@@ -8052,7 +8055,7 @@
         <v>10247.239765973771</v>
       </c>
       <c r="G272" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H272" t="s">
         <v>86</v>
@@ -8084,7 +8087,7 @@
         <v>6240.657632511703</v>
       </c>
       <c r="G273" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H273" t="s">
         <v>86</v>
@@ -8116,7 +8119,7 @@
         <v>14398.293124016027</v>
       </c>
       <c r="G274" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H274" t="s">
         <v>86</v>
@@ -8148,7 +8151,7 @@
         <v>251356.72111178871</v>
       </c>
       <c r="G275" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H275" t="s">
         <v>86</v>
@@ -8180,7 +8183,7 @@
         <v>4639.3576000601633</v>
       </c>
       <c r="G276" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H276" t="s">
         <v>86</v>
@@ -8212,7 +8215,7 @@
         <v>64338.952803483386</v>
       </c>
       <c r="G277" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H277" t="s">
         <v>86</v>
@@ -8244,7 +8247,7 @@
         <v>24037.762423810709</v>
       </c>
       <c r="G278" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H278" t="s">
         <v>86</v>
@@ -8276,7 +8279,7 @@
         <v>3826.4371997262829</v>
       </c>
       <c r="G279" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H279" t="s">
         <v>86</v>
@@ -8308,7 +8311,7 @@
         <v>4643.1484949014221</v>
       </c>
       <c r="G280" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H280" t="s">
         <v>86</v>
@@ -8340,7 +8343,7 @@
         <v>63887.70220078023</v>
       </c>
       <c r="G281" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H281" t="s">
         <v>86</v>
@@ -8372,7 +8375,7 @@
         <v>1239.2002443851643</v>
       </c>
       <c r="G282" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H282" t="s">
         <v>86</v>
@@ -8404,7 +8407,7 @@
         <v>77806.823939628885</v>
       </c>
       <c r="G283" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H283" t="s">
         <v>86</v>
@@ -8436,7 +8439,7 @@
         <v>30397.652570993756</v>
       </c>
       <c r="G284" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H284" t="s">
         <v>86</v>
@@ -8468,7 +8471,7 @@
         <v>580.30600602523396</v>
       </c>
       <c r="G285" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H285" t="s">
         <v>86</v>
@@ -8500,7 +8503,7 @@
         <v>10211.563068780952</v>
       </c>
       <c r="G286" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H286" t="s">
         <v>86</v>
@@ -8532,7 +8535,7 @@
         <v>184533.24036832617</v>
       </c>
       <c r="G287" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H287" t="s">
         <v>86</v>
@@ -8564,7 +8567,7 @@
         <v>1784.9882158538362</v>
       </c>
       <c r="G288" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H288" t="s">
         <v>86</v>
@@ -8596,7 +8599,7 @@
         <v>142127.91873875455</v>
       </c>
       <c r="G289" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H289" t="s">
         <v>86</v>
@@ -8628,7 +8631,7 @@
         <v>45426.727235972932</v>
       </c>
       <c r="G290" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H290" t="s">
         <v>86</v>
@@ -8660,7 +8663,7 @@
         <v>8258.8755810290222</v>
       </c>
       <c r="G291" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H291" t="s">
         <v>86</v>
@@ -8692,7 +8695,7 @@
         <v>9557.4603031532606</v>
       </c>
       <c r="G292" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H292" t="s">
         <v>86</v>
@@ -8724,7 +8727,7 @@
         <v>145624.29290052608</v>
       </c>
       <c r="G293" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H293" t="s">
         <v>86</v>
@@ -8756,7 +8759,7 @@
         <v>4630.0372042710314</v>
       </c>
       <c r="G294" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H294" t="s">
         <v>86</v>
@@ -8788,7 +8791,7 @@
         <v>219156.55705535915</v>
       </c>
       <c r="G295" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H295" t="s">
         <v>86</v>
@@ -8820,7 +8823,7 @@
         <v>41702.758793559049</v>
       </c>
       <c r="G296" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H296" t="s">
         <v>86</v>
@@ -8852,7 +8855,7 @@
         <v>11752.110271693773</v>
       </c>
       <c r="G297" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H297" t="s">
         <v>86</v>
@@ -8884,7 +8887,7 @@
         <v>9414.942774507088</v>
       </c>
       <c r="G298" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H298" t="s">
         <v>86</v>
@@ -8916,7 +8919,7 @@
         <v>157728.35165002686</v>
       </c>
       <c r="G299" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H299" t="s">
         <v>86</v>
@@ -8948,7 +8951,7 @@
         <v>2608.5796141692022</v>
       </c>
       <c r="G300" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H300" t="s">
         <v>86</v>
@@ -8980,7 +8983,7 @@
         <v>127583.52170839247</v>
       </c>
       <c r="G301" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H301" t="s">
         <v>86</v>
@@ -9012,7 +9015,7 @@
         <v>31197.268389303037</v>
       </c>
       <c r="G302" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H302" t="s">
         <v>86</v>
@@ -9044,7 +9047,7 @@
         <v>19674.119335038991</v>
       </c>
       <c r="G303" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H303" t="s">
         <v>86</v>
@@ -9076,7 +9079,7 @@
         <v>59.937751656536363</v>
       </c>
       <c r="G304" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H304" t="s">
         <v>86</v>
@@ -9108,7 +9111,7 @@
         <v>22570.150663303688</v>
       </c>
       <c r="G305" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H305" t="s">
         <v>86</v>
@@ -9140,7 +9143,7 @@
         <v>12.717102554238107</v>
       </c>
       <c r="G306" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H306" t="s">
         <v>86</v>
@@ -9172,7 +9175,7 @@
         <v>52914.027846697099</v>
       </c>
       <c r="G307" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H307" t="s">
         <v>86</v>
@@ -9204,7 +9207,7 @@
         <v>6167.2112925714964</v>
       </c>
       <c r="G308" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H308" t="s">
         <v>86</v>
@@ -9236,7 +9239,7 @@
         <v>15628.914827420229</v>
       </c>
       <c r="G309" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H309" t="s">
         <v>86</v>
@@ -9268,7 +9271,7 @@
         <v>367.19685618660088</v>
       </c>
       <c r="G310" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H310" t="s">
         <v>86</v>
@@ -9300,7 +9303,7 @@
         <v>33811.061244375509</v>
       </c>
       <c r="G311" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H311" t="s">
         <v>86</v>
@@ -9332,7 +9335,7 @@
         <v>16.694662151644245</v>
       </c>
       <c r="G312" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H312" t="s">
         <v>86</v>
@@ -9364,7 +9367,7 @@
         <v>36023.909835050967</v>
       </c>
       <c r="G313" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H313" t="s">
         <v>86</v>
@@ -9396,7 +9399,7 @@
         <v>9664.2933969973674</v>
       </c>
       <c r="G314" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H314" t="s">
         <v>86</v>
@@ -9428,7 +9431,7 @@
         <v>2136.8845210346039</v>
       </c>
       <c r="G315" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H315" t="s">
         <v>86</v>
@@ -9460,7 +9463,7 @@
         <v>865.02303146035422</v>
       </c>
       <c r="G316" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H316" t="s">
         <v>86</v>
@@ -9492,7 +9495,7 @@
         <v>1322.2321467596173</v>
       </c>
       <c r="G317" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H317" t="s">
         <v>86</v>
@@ -9524,7 +9527,7 @@
         <v>246.76770633396004</v>
       </c>
       <c r="G318" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H318" t="s">
         <v>86</v>
@@ -9556,7 +9559,7 @@
         <v>12516.336862628499</v>
       </c>
       <c r="G319" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H319" t="s">
         <v>86</v>
@@ -9588,7 +9591,7 @@
         <v>650.53286444681021</v>
       </c>
       <c r="G320" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H320" t="s">
         <v>86</v>
@@ -9620,7 +9623,7 @@
         <v>2324.4048202753288</v>
       </c>
       <c r="G321" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H321" t="s">
         <v>86</v>
@@ -9652,7 +9655,7 @@
         <v>344.05955060935412</v>
       </c>
       <c r="G322" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H322" t="s">
         <v>86</v>
@@ -9684,7 +9687,7 @@
         <v>538.72587723692038</v>
       </c>
       <c r="G323" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H323" t="s">
         <v>86</v>
@@ -9716,7 +9719,7 @@
         <v>165.49477391066304</v>
       </c>
       <c r="G324" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H324" t="s">
         <v>86</v>
@@ -9748,7 +9751,7 @@
         <v>10608.7169084712</v>
       </c>
       <c r="G325" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H325" t="s">
         <v>86</v>
@@ -9780,7 +9783,7 @@
         <v>2.9890651801029158</v>
       </c>
       <c r="G326" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H326" t="s">
         <v>86</v>
@@ -9812,7 +9815,7 @@
         <v>861.72059436785958</v>
       </c>
       <c r="G327" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H327" t="s">
         <v>86</v>
@@ -9844,7 +9847,7 @@
         <v>321.63665818847613</v>
       </c>
       <c r="G328" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H328" t="s">
         <v>86</v>
@@ -9876,7 +9879,7 @@
         <v>19571.124797271888</v>
       </c>
       <c r="G329" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H329" t="s">
         <v>86</v>
@@ -9908,7 +9911,7 @@
         <v>17.246000000000002</v>
       </c>
       <c r="G330" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H330" t="s">
         <v>86</v>
@@ -9940,7 +9943,7 @@
         <v>336.61647100528398</v>
       </c>
       <c r="G331" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H331" t="s">
         <v>86</v>
@@ -9972,7 +9975,7 @@
         <v>6479.6878317177006</v>
       </c>
       <c r="G332" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H332" t="s">
         <v>86</v>
@@ -10004,7 +10007,7 @@
         <v>146.732</v>
       </c>
       <c r="G333" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H333" t="s">
         <v>86</v>
@@ -10036,7 +10039,7 @@
         <v>485.18920621830341</v>
       </c>
       <c r="G334" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H334" t="s">
         <v>86</v>
@@ -10068,7 +10071,7 @@
         <v>26771.592829846762</v>
       </c>
       <c r="G335" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H335" t="s">
         <v>86</v>
@@ -10100,7 +10103,7 @@
         <v>188.90300000000002</v>
       </c>
       <c r="G336" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H336" t="s">
         <v>86</v>
@@ -10132,7 +10135,7 @@
         <v>530.36539340149568</v>
       </c>
       <c r="G337" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H337" t="s">
         <v>86</v>
@@ -10164,7 +10167,7 @@
         <v>5778.4188123500962</v>
       </c>
       <c r="G338" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H338" t="s">
         <v>86</v>
@@ -10196,7 +10199,7 @@
         <v>57.486999999999995</v>
       </c>
       <c r="G339" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H339" t="s">
         <v>86</v>
@@ -10228,7 +10231,7 @@
         <v>97.502883519845682</v>
       </c>
       <c r="G340" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H340" t="s">
         <v>86</v>
@@ -10260,7 +10263,7 @@
         <v>49495.205012346581</v>
       </c>
       <c r="G341" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H341" t="s">
         <v>86</v>
@@ -10292,7 +10295,7 @@
         <v>617.07013830971096</v>
       </c>
       <c r="G342" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H342" t="s">
         <v>86</v>
@@ -10324,7 +10327,7 @@
         <v>34675.987504774654</v>
       </c>
       <c r="G343" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H343" t="s">
         <v>86</v>
@@ -10356,7 +10359,7 @@
         <v>6047.1192645228984</v>
       </c>
       <c r="G344" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H344" t="s">
         <v>86</v>
@@ -10388,7 +10391,7 @@
         <v>6347.7556833558338</v>
       </c>
       <c r="G345" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H345" t="s">
         <v>86</v>
@@ -10420,7 +10423,7 @@
         <v>2866.6510499911519</v>
       </c>
       <c r="G346" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H346" t="s">
         <v>86</v>
@@ -10452,7 +10455,7 @@
         <v>21895.422909504425</v>
       </c>
       <c r="G347" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H347" t="s">
         <v>86</v>
@@ -10484,7 +10487,7 @@
         <v>175.69455715983608</v>
       </c>
       <c r="G348" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H348" t="s">
         <v>86</v>
@@ -10516,7 +10519,7 @@
         <v>17629.713549389595</v>
       </c>
       <c r="G349" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H349" t="s">
         <v>86</v>
@@ -10548,7 +10551,7 @@
         <v>1895.9665119371009</v>
       </c>
       <c r="G350" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H350" t="s">
         <v>86</v>
@@ -10580,7 +10583,7 @@
         <v>1226.9109351883744</v>
       </c>
       <c r="G351" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H351" t="s">
         <v>86</v>
@@ -10612,7 +10615,7 @@
         <v>4878.8713759608654</v>
       </c>
       <c r="G352" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H352" t="s">
         <v>86</v>
@@ -10644,7 +10647,7 @@
         <v>21423.228621336257</v>
       </c>
       <c r="G353" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H353" t="s">
         <v>86</v>
@@ -10676,7 +10679,7 @@
         <v>78.661450627454968</v>
       </c>
       <c r="G354" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H354" t="s">
         <v>86</v>
@@ -10708,7 +10711,7 @@
         <v>68630.619154880085</v>
       </c>
       <c r="G355" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H355" t="s">
         <v>86</v>
@@ -10740,7 +10743,7 @@
         <v>30343.273770049575</v>
       </c>
       <c r="G356" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H356" t="s">
         <v>86</v>
@@ -10772,7 +10775,7 @@
         <v>7254.6197592413628</v>
       </c>
       <c r="G357" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H357" t="s">
         <v>86</v>
@@ -10804,7 +10807,7 @@
         <v>4231.1147092942192</v>
       </c>
       <c r="G358" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H358" t="s">
         <v>86</v>
@@ -10836,7 +10839,7 @@
         <v>26779.747408948784</v>
       </c>
       <c r="G359" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H359" t="s">
         <v>86</v>
@@ -10868,7 +10871,7 @@
         <v>38.763634287629955</v>
       </c>
       <c r="G360" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H360" t="s">
         <v>86</v>
@@ -10900,7 +10903,7 @@
         <v>40133.30895769503</v>
       </c>
       <c r="G361" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H361" t="s">
         <v>86</v>
@@ -10932,7 +10935,7 @@
         <v>3183.0024543966538</v>
       </c>
       <c r="G362" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H362" t="s">
         <v>86</v>
@@ -10964,7 +10967,7 @@
         <v>954.51285213324832</v>
       </c>
       <c r="G363" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H363" t="s">
         <v>86</v>
@@ -10996,7 +10999,7 @@
         <v>796.38982757352926</v>
       </c>
       <c r="G364" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H364" t="s">
         <v>86</v>
@@ -11028,7 +11031,7 @@
         <v>14523.278234305888</v>
       </c>
       <c r="G365" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H365" t="s">
         <v>86</v>
@@ -11060,7 +11063,7 @@
         <v>295.03658045309834</v>
       </c>
       <c r="G366" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H366" t="s">
         <v>86</v>
@@ -11092,7 +11095,7 @@
         <v>29747.905867875084</v>
       </c>
       <c r="G367" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H367" t="s">
         <v>86</v>
@@ -11124,7 +11127,7 @@
         <v>5869.6727564367684</v>
       </c>
       <c r="G368" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H368" t="s">
         <v>86</v>
@@ -11156,7 +11159,7 @@
         <v>7403.5774247271083</v>
       </c>
       <c r="G369" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H369" t="s">
         <v>86</v>
@@ -11188,7 +11191,7 @@
         <v>752.4861724264706</v>
       </c>
       <c r="G370" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H370" t="s">
         <v>86</v>
@@ -11220,7 +11223,7 @@
         <v>28885.040765694099</v>
       </c>
       <c r="G371" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H371" t="s">
         <v>86</v>
@@ -11252,7 +11255,7 @@
         <v>255.76941954690156</v>
       </c>
       <c r="G372" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H372" t="s">
         <v>86</v>
@@ -11284,7 +11287,7 @@
         <v>20064.459132124935</v>
       </c>
       <c r="G373" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H373" t="s">
         <v>86</v>
@@ -11316,7 +11319,7 @@
         <v>5438.168243563232</v>
       </c>
       <c r="G374" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H374" t="s">
         <v>86</v>
@@ -11348,7 +11351,7 @@
         <v>515.28357527289188</v>
       </c>
       <c r="G375" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="H375" t="s">
         <v>86</v>
@@ -21457,8 +21460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94BF84-AB01-45F2-8A1E-DD5B502642C6}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P96" sqref="P96"/>
+    <sheetView topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U104" sqref="U104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21527,7 +21530,7 @@
         <v>36</v>
       </c>
       <c r="N2" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -21541,7 +21544,7 @@
         <v>36</v>
       </c>
       <c r="N3" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -21555,7 +21558,7 @@
         <v>36</v>
       </c>
       <c r="N4" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -21569,7 +21572,7 @@
         <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -21583,7 +21586,7 @@
         <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -21597,7 +21600,7 @@
         <v>36</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -21611,7 +21614,7 @@
         <v>36</v>
       </c>
       <c r="N8" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -21625,7 +21628,7 @@
         <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -21642,7 +21645,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
         <v>78</v>
@@ -21665,7 +21668,7 @@
         <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
         <v>78</v>
@@ -21688,7 +21691,7 @@
         <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
         <v>78</v>
@@ -21708,7 +21711,7 @@
         <v>36</v>
       </c>
       <c r="N13" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -21725,7 +21728,7 @@
         <v>36</v>
       </c>
       <c r="N14" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O14" t="s">
         <v>78</v>
@@ -21748,7 +21751,7 @@
         <v>36</v>
       </c>
       <c r="N15" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
         <v>78</v>
@@ -21771,7 +21774,7 @@
         <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
         <v>78</v>
@@ -21794,7 +21797,7 @@
         <v>36</v>
       </c>
       <c r="N17" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O17" t="s">
         <v>78</v>
@@ -21817,7 +21820,7 @@
         <v>36</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O18" t="s">
         <v>78</v>
@@ -21837,7 +21840,7 @@
         <v>36</v>
       </c>
       <c r="N19" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -21851,7 +21854,7 @@
         <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -21865,7 +21868,7 @@
         <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -21879,7 +21882,7 @@
         <v>36</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -23987,7 +23990,7 @@
         <v>38</v>
       </c>
       <c r="N86" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O86" t="s">
         <v>86</v>
@@ -24040,7 +24043,7 @@
         <v>38</v>
       </c>
       <c r="N87" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O87" t="s">
         <v>86</v>
@@ -24093,7 +24096,7 @@
         <v>38</v>
       </c>
       <c r="N88" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O88" t="s">
         <v>86</v>
@@ -24146,7 +24149,7 @@
         <v>38</v>
       </c>
       <c r="N89" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O89" t="s">
         <v>86</v>
@@ -24175,7 +24178,7 @@
         <v>38</v>
       </c>
       <c r="N90" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O90" t="s">
         <v>86</v>
@@ -24201,7 +24204,7 @@
         <v>38</v>
       </c>
       <c r="N91" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O91" t="s">
         <v>86</v>
@@ -24227,7 +24230,7 @@
         <v>38</v>
       </c>
       <c r="N92" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O92" t="s">
         <v>86</v>
@@ -24253,7 +24256,7 @@
         <v>38</v>
       </c>
       <c r="N93" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="O93" t="s">
         <v>86</v>
@@ -34625,6 +34628,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000614419EC33FAD42A0282CFF32600A20" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="699fc316e813a14ea4ed1705cd009a31">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4f3f700-51b4-43ff-b002-6ed848604d46" xmlns:ns3="01f01bef-47b7-4725-adaf-9b6a8bd74ef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60f45b07400bba80031d5d187855d3df" ns2:_="" ns3:_="">
     <xsd:import namespace="d4f3f700-51b4-43ff-b002-6ed848604d46"/>
@@ -34827,15 +34839,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AD2C85-521D-4770-88CD-9DAE105CB1B6}">
   <ds:schemaRefs>
@@ -34846,6 +34849,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06F29519-FBA5-4771-9A2F-A4B6B88124FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -34862,12 +34873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. data/Barkley Sockeye time series of returns.xlsx
+++ b/1. data/Barkley Sockeye time series of returns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://086gc.sharepoint.com/sites/SalmonScienceStrategy-salmonFSAR/Shared Documents/salmon FSAR - sprint week/Barkley Sockeye/3. Data/Stock-recruit data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="758" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2EF2ED4-E85B-4F51-8ED5-A839A73EFB37}"/>
+  <xr:revisionPtr revIDLastSave="879" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F26EC160-20AE-4E07-91DB-04BA3B87CF17}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sources notes" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Age_samples" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hucuktlis!$A$1:$O$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Hucuktlis!$A$1:$O$123</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Somass!$A$1:$I$663</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5041" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5072" uniqueCount="117">
   <si>
     <t>GCL</t>
   </si>
@@ -403,9 +403,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -474,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -482,6 +483,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1049,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J663"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H667" sqref="H667"/>
     </sheetView>
@@ -21458,10 +21460,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94BF84-AB01-45F2-8A1E-DD5B502642C6}">
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U104" sqref="U104"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I125" sqref="I125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24122,28 +24125,28 @@
         <v>20</v>
       </c>
       <c r="E89">
-        <v>137</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0.29702970297029702</v>
-      </c>
-      <c r="H89">
-        <v>0.60396039603960394</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>9.9009900990099011E-3</v>
-      </c>
-      <c r="L89">
-        <v>8.9108910891089105E-2</v>
+        <v>152</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0</v>
+      </c>
+      <c r="G89" s="5">
+        <v>0.30263157889999998</v>
+      </c>
+      <c r="H89" s="5">
+        <v>0.60526315789999996</v>
+      </c>
+      <c r="I89" s="5">
+        <v>0</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0</v>
+      </c>
+      <c r="K89" s="5">
+        <v>6.5789474000000001E-3</v>
+      </c>
+      <c r="L89" s="5">
+        <v>8.5526315800000002E-2</v>
       </c>
       <c r="M89" t="s">
         <v>38</v>
@@ -24171,7 +24174,31 @@
       <c r="C90">
         <v>237</v>
       </c>
+      <c r="D90" t="s">
+        <v>42</v>
+      </c>
       <c r="E90">
+        <v>109</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0.42202000000000001</v>
+      </c>
+      <c r="H90">
+        <v>0.27522999999999997</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>0.30275000000000002</v>
+      </c>
+      <c r="L90">
         <v>0</v>
       </c>
       <c r="M90" t="s">
@@ -24852,28 +24879,30 @@
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B106">
-        <v>6400</v>
+        <v>11837</v>
       </c>
       <c r="C106">
-        <v>5192</v>
+        <v>21656</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="F106">
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <f>4/E106</f>
+        <v>0.12121212121212122</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <f>28/E106</f>
+        <v>0.84848484848484851</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -24882,7 +24911,8 @@
         <v>0</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <f>1/E106</f>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="L106">
         <v>0</v>
@@ -24902,28 +24932,28 @@
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B107">
-        <v>10700</v>
+        <v>6400</v>
       </c>
       <c r="C107">
-        <v>23111</v>
+        <v>5192</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E107">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="F107">
         <v>0</v>
       </c>
       <c r="G107">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="H107">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -24952,28 +24982,28 @@
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B108">
-        <v>10700</v>
+        <v>6400</v>
       </c>
       <c r="C108">
-        <v>23111</v>
+        <v>5192</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E108">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="F108">
         <v>0</v>
       </c>
       <c r="G108">
-        <v>6.9306930693069313E-2</v>
+        <v>1</v>
       </c>
       <c r="H108">
-        <v>0.91089108910891092</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -24982,7 +25012,7 @@
         <v>0</v>
       </c>
       <c r="K108">
-        <v>1.9801980198019802E-2</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>0</v>
@@ -25002,31 +25032,31 @@
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B109">
-        <v>22704</v>
+        <v>10700</v>
       </c>
       <c r="C109">
-        <v>3217</v>
+        <v>23111</v>
       </c>
       <c r="D109" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E109">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="F109">
         <v>0</v>
       </c>
       <c r="G109">
-        <v>0.59</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H109">
-        <v>0.36</v>
+        <v>0.93</v>
       </c>
       <c r="I109">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -25052,28 +25082,28 @@
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B110">
-        <v>12203</v>
+        <v>10700</v>
       </c>
       <c r="C110">
-        <v>626</v>
+        <v>23111</v>
       </c>
       <c r="D110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E110">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="F110">
         <v>0</v>
       </c>
       <c r="G110">
-        <v>0.11</v>
+        <v>6.9306930693069313E-2</v>
       </c>
       <c r="H110">
-        <v>0.89</v>
+        <v>0.91089108910891092</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -25082,7 +25112,7 @@
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1.9801980198019802E-2</v>
       </c>
       <c r="L110">
         <v>0</v>
@@ -25102,31 +25132,31 @@
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B111">
-        <v>13549</v>
+        <v>22704</v>
       </c>
       <c r="C111">
-        <v>154</v>
+        <v>3217</v>
       </c>
       <c r="D111" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E111">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F111">
         <v>0</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -25152,18 +25182,41 @@
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B112">
-        <v>4589</v>
+        <v>22704</v>
       </c>
       <c r="C112">
-        <v>443</v>
+        <v>3217</v>
       </c>
       <c r="D112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E112">
+        <v>28</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f>20/E112</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="H112">
+        <f>8/E112</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
         <v>0</v>
       </c>
       <c r="N112" t="s">
@@ -25181,28 +25234,28 @@
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B113">
-        <v>14520</v>
+        <v>12203</v>
       </c>
       <c r="C113">
-        <v>4359</v>
+        <v>626</v>
       </c>
       <c r="D113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E113">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -25231,28 +25284,30 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B114">
-        <v>18646</v>
+        <v>12203</v>
       </c>
       <c r="C114">
-        <v>7731</v>
+        <v>626</v>
       </c>
       <c r="D114" t="s">
         <v>34</v>
       </c>
       <c r="E114">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F114">
         <v>0</v>
       </c>
       <c r="G114">
-        <v>0.35820895522388058</v>
+        <f>11/E114</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="H114">
-        <v>0.62686567164179108</v>
+        <f>22/E114</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -25264,7 +25319,7 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>1.4925373134328358E-2</v>
+        <v>0</v>
       </c>
       <c r="N114" t="s">
         <v>44</v>
@@ -25281,28 +25336,28 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B115">
-        <v>18646</v>
+        <v>13549</v>
       </c>
       <c r="C115">
-        <v>7731</v>
+        <v>154</v>
       </c>
       <c r="D115" t="s">
         <v>32</v>
       </c>
       <c r="E115">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F115">
         <v>0</v>
       </c>
       <c r="G115">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -25331,28 +25386,28 @@
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B116">
-        <v>13113</v>
+        <v>13549</v>
       </c>
       <c r="C116">
-        <v>8196</v>
+        <v>154</v>
       </c>
       <c r="D116" t="s">
         <v>34</v>
       </c>
       <c r="E116">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="F116">
         <v>0</v>
       </c>
       <c r="G116">
-        <v>0.19867549668874171</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>0.7814569536423841</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -25361,10 +25416,10 @@
         <v>0</v>
       </c>
       <c r="K116">
-        <v>6.6225165562913907E-3</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>1.3245033112582781E-2</v>
+        <v>0</v>
       </c>
       <c r="N116" t="s">
         <v>44</v>
@@ -25381,31 +25436,34 @@
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B117">
-        <v>13113</v>
+        <v>4589</v>
       </c>
       <c r="C117">
-        <v>8196</v>
+        <v>443</v>
       </c>
       <c r="D117" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F117">
         <v>0</v>
       </c>
       <c r="G117">
-        <v>0.14285714285714285</v>
+        <f>7/E117</f>
+        <v>0.7</v>
       </c>
       <c r="H117">
-        <v>0.8571428571428571</v>
+        <f>2/E117</f>
+        <v>0.2</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <f>1/E117</f>
+        <v>0.1</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -25426,6 +25484,310 @@
         <v>41</v>
       </c>
       <c r="Q117" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>2021</v>
+      </c>
+      <c r="B118">
+        <v>14520</v>
+      </c>
+      <c r="C118">
+        <v>4359</v>
+      </c>
+      <c r="D118" t="s">
+        <v>33</v>
+      </c>
+      <c r="E118">
+        <v>7</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
+        <v>44</v>
+      </c>
+      <c r="O118" t="s">
+        <v>86</v>
+      </c>
+      <c r="P118" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>2021</v>
+      </c>
+      <c r="B119">
+        <v>14520</v>
+      </c>
+      <c r="C119">
+        <v>4359</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>155</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <f>129/E119</f>
+        <v>0.83225806451612905</v>
+      </c>
+      <c r="H119">
+        <f>23/E119</f>
+        <v>0.14838709677419354</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <f>1/E119</f>
+        <v>6.4516129032258064E-3</v>
+      </c>
+      <c r="L119">
+        <f>2/E119</f>
+        <v>1.2903225806451613E-2</v>
+      </c>
+      <c r="N119" t="s">
+        <v>44</v>
+      </c>
+      <c r="O119" t="s">
+        <v>86</v>
+      </c>
+      <c r="P119" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>2022</v>
+      </c>
+      <c r="B120">
+        <v>18646</v>
+      </c>
+      <c r="C120">
+        <v>7731</v>
+      </c>
+      <c r="D120" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>67</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0.35820895522388058</v>
+      </c>
+      <c r="H120">
+        <v>0.62686567164179108</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1.4925373134328358E-2</v>
+      </c>
+      <c r="N120" t="s">
+        <v>44</v>
+      </c>
+      <c r="O120" t="s">
+        <v>86</v>
+      </c>
+      <c r="P120" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>2022</v>
+      </c>
+      <c r="B121">
+        <v>18646</v>
+      </c>
+      <c r="C121">
+        <v>7731</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121">
+        <v>15</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H121">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
+        <v>44</v>
+      </c>
+      <c r="O121" t="s">
+        <v>86</v>
+      </c>
+      <c r="P121" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>2023</v>
+      </c>
+      <c r="B122">
+        <v>13113</v>
+      </c>
+      <c r="C122">
+        <v>8196</v>
+      </c>
+      <c r="D122" t="s">
+        <v>34</v>
+      </c>
+      <c r="E122">
+        <v>151</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0.19867549668874171</v>
+      </c>
+      <c r="H122">
+        <v>0.7814569536423841</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>6.6225165562913907E-3</v>
+      </c>
+      <c r="L122">
+        <v>1.3245033112582781E-2</v>
+      </c>
+      <c r="N122" t="s">
+        <v>44</v>
+      </c>
+      <c r="O122" t="s">
+        <v>86</v>
+      </c>
+      <c r="P122" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>2023</v>
+      </c>
+      <c r="B123">
+        <v>13113</v>
+      </c>
+      <c r="C123">
+        <v>8196</v>
+      </c>
+      <c r="D123" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123">
+        <v>7</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H123">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
+        <v>44</v>
+      </c>
+      <c r="O123" t="s">
+        <v>86</v>
+      </c>
+      <c r="P123" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q123" t="s">
         <v>39</v>
       </c>
     </row>
@@ -25439,7 +25801,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FC0BAD-3412-4CD1-924D-26A01469586A}">
   <dimension ref="A1:F277"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A280" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
@@ -29853,8 +30215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116A4842-63E3-4614-A73E-CB32DDB2B86D}">
   <dimension ref="A1:G245"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="F275" sqref="F275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33938,7 +34300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F161B800-98B7-4043-8D52-286424C777BB}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>

--- a/1. data/Barkley Sockeye time series of returns.xlsx
+++ b/1. data/Barkley Sockeye time series of returns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://086gc.sharepoint.com/sites/SalmonScienceStrategy-salmonFSAR/Shared Documents/salmon FSAR - sprint week/Barkley Sockeye/3. Data/Stock-recruit data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1248" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE463298-458B-46AB-B3FC-7A8F2913DC1C}"/>
+  <xr:revisionPtr revIDLastSave="1250" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F06693-F4CA-43C2-AF6A-E335E9115B6E}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sources notes" sheetId="5" r:id="rId1"/>
@@ -25719,12 +25719,13 @@
   <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q92" sqref="Q92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29127,7 +29128,7 @@
         <v>38</v>
       </c>
       <c r="Q91" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="R91" t="s">
         <v>86</v>
@@ -40945,15 +40946,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000614419EC33FAD42A0282CFF32600A20" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b94ec4c5b022f3c1dd5ef88a1c70be4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4f3f700-51b4-43ff-b002-6ed848604d46" xmlns:ns3="01f01bef-47b7-4725-adaf-9b6a8bd74ef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d993d6f0fe140b5b27b8bdb1a11ff43" ns2:_="" ns3:_="">
     <xsd:import namespace="d4f3f700-51b4-43ff-b002-6ed848604d46"/>
@@ -41162,6 +41154,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AD2C85-521D-4770-88CD-9DAE105CB1B6}">
   <ds:schemaRefs>
@@ -41172,14 +41173,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F8A5F1-9F5C-410C-A02F-9F6149407001}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41196,4 +41189,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. data/Barkley Sockeye time series of returns.xlsx
+++ b/1. data/Barkley Sockeye time series of returns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://086gc.sharepoint.com/sites/SalmonScienceStrategy-salmonFSAR/Shared Documents/salmon FSAR - sprint week/Barkley Sockeye/3. Data/Stock-recruit data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1250" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5F06693-F4CA-43C2-AF6A-E335E9115B6E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E5154F-BC5F-4A6C-9F3D-16808F8FD8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sources notes" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5112" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5177" uniqueCount="138">
   <si>
     <t>GCL</t>
   </si>
@@ -1124,9 +1124,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L677"/>
+  <dimension ref="A1:L689"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
@@ -1184,6 +1184,9 @@
       <c r="B2">
         <v>1921</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
       <c r="H2">
         <f>1344000+112000+448000+336000+448000</f>
         <v>2688000</v>
@@ -1196,6 +1199,9 @@
       <c r="B3">
         <v>1921</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
       <c r="H3">
         <f>80000+112000+1120000</f>
         <v>1312000</v>
@@ -24834,6 +24840,462 @@
         <v>39</v>
       </c>
       <c r="L677" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>0</v>
+      </c>
+      <c r="B678">
+        <v>2024</v>
+      </c>
+      <c r="C678" s="1">
+        <v>3</v>
+      </c>
+      <c r="D678" s="1">
+        <v>2</v>
+      </c>
+      <c r="E678">
+        <v>44034.592196495687</v>
+      </c>
+      <c r="F678">
+        <v>1833.3676334248605</v>
+      </c>
+      <c r="G678">
+        <v>1</v>
+      </c>
+      <c r="H678">
+        <v>0</v>
+      </c>
+      <c r="I678" t="s">
+        <v>57</v>
+      </c>
+      <c r="J678" t="s">
+        <v>86</v>
+      </c>
+      <c r="K678" t="s">
+        <v>39</v>
+      </c>
+      <c r="L678" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>0</v>
+      </c>
+      <c r="B679">
+        <v>2024</v>
+      </c>
+      <c r="C679" s="1">
+        <v>4</v>
+      </c>
+      <c r="D679" s="1">
+        <v>2</v>
+      </c>
+      <c r="E679">
+        <v>268331.71659599483</v>
+      </c>
+      <c r="F679">
+        <v>159033.37039591704</v>
+      </c>
+      <c r="G679">
+        <v>1</v>
+      </c>
+      <c r="H679">
+        <v>0</v>
+      </c>
+      <c r="I679" t="s">
+        <v>57</v>
+      </c>
+      <c r="J679" t="s">
+        <v>86</v>
+      </c>
+      <c r="K679" t="s">
+        <v>39</v>
+      </c>
+      <c r="L679" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>0</v>
+      </c>
+      <c r="B680">
+        <v>2024</v>
+      </c>
+      <c r="C680" s="1">
+        <v>4</v>
+      </c>
+      <c r="D680" s="1">
+        <v>3</v>
+      </c>
+      <c r="E680">
+        <v>5652.1760715499395</v>
+      </c>
+      <c r="F680">
+        <v>820.23780905801345</v>
+      </c>
+      <c r="G680">
+        <v>1</v>
+      </c>
+      <c r="H680">
+        <v>0</v>
+      </c>
+      <c r="I680" t="s">
+        <v>57</v>
+      </c>
+      <c r="J680" t="s">
+        <v>86</v>
+      </c>
+      <c r="K680" t="s">
+        <v>39</v>
+      </c>
+      <c r="L680" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>0</v>
+      </c>
+      <c r="B681">
+        <v>2024</v>
+      </c>
+      <c r="C681" s="1">
+        <v>5</v>
+      </c>
+      <c r="D681" s="1">
+        <v>2</v>
+      </c>
+      <c r="E681">
+        <v>38399.017398105898</v>
+      </c>
+      <c r="F681">
+        <v>39429.947858773899</v>
+      </c>
+      <c r="G681">
+        <v>1</v>
+      </c>
+      <c r="H681">
+        <v>0</v>
+      </c>
+      <c r="I681" t="s">
+        <v>57</v>
+      </c>
+      <c r="J681" t="s">
+        <v>86</v>
+      </c>
+      <c r="K681" t="s">
+        <v>39</v>
+      </c>
+      <c r="L681" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>0</v>
+      </c>
+      <c r="B682">
+        <v>2024</v>
+      </c>
+      <c r="C682" s="1">
+        <v>5</v>
+      </c>
+      <c r="D682" s="1">
+        <v>3</v>
+      </c>
+      <c r="E682">
+        <v>14554.771097609648</v>
+      </c>
+      <c r="F682">
+        <v>7208.322237147273</v>
+      </c>
+      <c r="G682">
+        <v>1</v>
+      </c>
+      <c r="H682">
+        <v>0</v>
+      </c>
+      <c r="I682" t="s">
+        <v>57</v>
+      </c>
+      <c r="J682" t="s">
+        <v>86</v>
+      </c>
+      <c r="K682" t="s">
+        <v>39</v>
+      </c>
+      <c r="L682" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>0</v>
+      </c>
+      <c r="B683">
+        <v>2024</v>
+      </c>
+      <c r="C683" s="1">
+        <v>6</v>
+      </c>
+      <c r="D683" s="1">
+        <v>3</v>
+      </c>
+      <c r="E683">
+        <v>2686.7266402438008</v>
+      </c>
+      <c r="F683">
+        <v>3352.8454258667534</v>
+      </c>
+      <c r="G683">
+        <v>1</v>
+      </c>
+      <c r="H683">
+        <v>0</v>
+      </c>
+      <c r="I683" t="s">
+        <v>57</v>
+      </c>
+      <c r="J683" t="s">
+        <v>86</v>
+      </c>
+      <c r="K683" t="s">
+        <v>39</v>
+      </c>
+      <c r="L683" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>1</v>
+      </c>
+      <c r="B684">
+        <v>2024</v>
+      </c>
+      <c r="C684" s="1">
+        <v>3</v>
+      </c>
+      <c r="D684" s="1">
+        <v>2</v>
+      </c>
+      <c r="E684">
+        <v>39735.777080015832</v>
+      </c>
+      <c r="F684">
+        <v>3826.1618478795608</v>
+      </c>
+      <c r="G684">
+        <v>0</v>
+      </c>
+      <c r="H684">
+        <v>0</v>
+      </c>
+      <c r="I684" t="s">
+        <v>57</v>
+      </c>
+      <c r="J684" t="s">
+        <v>86</v>
+      </c>
+      <c r="K684" t="s">
+        <v>39</v>
+      </c>
+      <c r="L684" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>1</v>
+      </c>
+      <c r="B685">
+        <v>2024</v>
+      </c>
+      <c r="C685" s="1">
+        <v>4</v>
+      </c>
+      <c r="D685" s="1">
+        <v>2</v>
+      </c>
+      <c r="E685">
+        <v>61909.641764322092</v>
+      </c>
+      <c r="F685">
+        <v>50613.402972045842</v>
+      </c>
+      <c r="G685">
+        <v>0</v>
+      </c>
+      <c r="H685">
+        <v>0</v>
+      </c>
+      <c r="I685" t="s">
+        <v>57</v>
+      </c>
+      <c r="J685" t="s">
+        <v>86</v>
+      </c>
+      <c r="K685" t="s">
+        <v>39</v>
+      </c>
+      <c r="L685" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>1</v>
+      </c>
+      <c r="B686">
+        <v>2024</v>
+      </c>
+      <c r="C686" s="1">
+        <v>4</v>
+      </c>
+      <c r="D686" s="1">
+        <v>3</v>
+      </c>
+      <c r="E686">
+        <v>2386.7921965356168</v>
+      </c>
+      <c r="F686">
+        <v>378.60972498212408</v>
+      </c>
+      <c r="G686">
+        <v>0</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+      <c r="I686" t="s">
+        <v>57</v>
+      </c>
+      <c r="J686" t="s">
+        <v>86</v>
+      </c>
+      <c r="K686" t="s">
+        <v>39</v>
+      </c>
+      <c r="L686" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>1</v>
+      </c>
+      <c r="B687">
+        <v>2024</v>
+      </c>
+      <c r="C687" s="1">
+        <v>5</v>
+      </c>
+      <c r="D687" s="1">
+        <v>2</v>
+      </c>
+      <c r="E687">
+        <v>14471.975813620307</v>
+      </c>
+      <c r="F687">
+        <v>15769.519127953165</v>
+      </c>
+      <c r="G687">
+        <v>0</v>
+      </c>
+      <c r="H687">
+        <v>0</v>
+      </c>
+      <c r="I687" t="s">
+        <v>57</v>
+      </c>
+      <c r="J687" t="s">
+        <v>86</v>
+      </c>
+      <c r="K687" t="s">
+        <v>39</v>
+      </c>
+      <c r="L687" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>1</v>
+      </c>
+      <c r="B688">
+        <v>2024</v>
+      </c>
+      <c r="C688" s="1">
+        <v>5</v>
+      </c>
+      <c r="D688" s="1">
+        <v>3</v>
+      </c>
+      <c r="E688">
+        <v>1090.515511575815</v>
+      </c>
+      <c r="F688">
+        <v>3124.6854585110136</v>
+      </c>
+      <c r="G688">
+        <v>0</v>
+      </c>
+      <c r="H688">
+        <v>0</v>
+      </c>
+      <c r="I688" t="s">
+        <v>57</v>
+      </c>
+      <c r="J688" t="s">
+        <v>86</v>
+      </c>
+      <c r="K688" t="s">
+        <v>39</v>
+      </c>
+      <c r="L688" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>1</v>
+      </c>
+      <c r="B689">
+        <v>2024</v>
+      </c>
+      <c r="C689" s="1">
+        <v>6</v>
+      </c>
+      <c r="D689" s="1">
+        <v>3</v>
+      </c>
+      <c r="E689">
+        <v>400.29763393037445</v>
+      </c>
+      <c r="F689">
+        <v>55.316639130895297</v>
+      </c>
+      <c r="G689">
+        <v>0</v>
+      </c>
+      <c r="H689">
+        <v>0</v>
+      </c>
+      <c r="I689" t="s">
+        <v>57</v>
+      </c>
+      <c r="J689" t="s">
+        <v>86</v>
+      </c>
+      <c r="K689" t="s">
+        <v>39</v>
+      </c>
+      <c r="L689" t="s">
         <v>41</v>
       </c>
     </row>
@@ -25716,11 +26178,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A94BF84-AB01-45F2-8A1E-DD5B502642C6}">
-  <dimension ref="A1:T126"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q92" sqref="Q92"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25795,6 +26257,9 @@
       <c r="A2">
         <v>1915</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>7400000</v>
       </c>
@@ -25803,6 +26268,9 @@
       <c r="A3">
         <v>1916</v>
       </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
       <c r="E3">
         <v>4078000</v>
       </c>
@@ -25811,6 +26279,9 @@
       <c r="A4">
         <v>1917</v>
       </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
       <c r="E4">
         <v>6995075</v>
       </c>
@@ -31132,6 +31603,65 @@
         <v>41</v>
       </c>
       <c r="T126" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>2024</v>
+      </c>
+      <c r="B127">
+        <v>3537</v>
+      </c>
+      <c r="C127">
+        <v>4769</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="6">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>6</v>
+      </c>
+      <c r="H127">
+        <v>86</v>
+      </c>
+      <c r="I127">
+        <v>8.4276426679508784E-4</v>
+      </c>
+      <c r="J127">
+        <v>0.32915964363111005</v>
+      </c>
+      <c r="K127">
+        <v>0.53720202263424033</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0.13279556946785456</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>44</v>
+      </c>
+      <c r="R127" t="s">
+        <v>86</v>
+      </c>
+      <c r="S127" t="s">
+        <v>41</v>
+      </c>
+      <c r="T127" t="s">
         <v>39</v>
       </c>
     </row>
@@ -40256,8 +40786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F161B800-98B7-4043-8D52-286424C777BB}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40931,7 +41461,7 @@
         <v>115</v>
       </c>
       <c r="D48">
-        <v>3004</v>
+        <v>3047</v>
       </c>
     </row>
   </sheetData>
@@ -40946,6 +41476,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000614419EC33FAD42A0282CFF32600A20" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b94ec4c5b022f3c1dd5ef88a1c70be4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4f3f700-51b4-43ff-b002-6ed848604d46" xmlns:ns3="01f01bef-47b7-4725-adaf-9b6a8bd74ef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d993d6f0fe140b5b27b8bdb1a11ff43" ns2:_="" ns3:_="">
     <xsd:import namespace="d4f3f700-51b4-43ff-b002-6ed848604d46"/>
@@ -41154,15 +41693,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AD2C85-521D-4770-88CD-9DAE105CB1B6}">
   <ds:schemaRefs>
@@ -41173,6 +41703,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F8A5F1-9F5C-410C-A02F-9F6149407001}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41189,12 +41727,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/1. data/Barkley Sockeye time series of returns.xlsx
+++ b/1. data/Barkley Sockeye time series of returns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://086gc.sharepoint.com/sites/SalmonScienceStrategy-salmonFSAR/Shared Documents/salmon FSAR - sprint week/Barkley Sockeye/3. Data/Stock-recruit data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1380" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3805297-6DE5-47B0-A0E3-37036098CA8E}"/>
+  <xr:revisionPtr revIDLastSave="1398" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00BE6DA-1ACC-4167-8E7F-2DA45A998618}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="15480" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sources notes" sheetId="5" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5192" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5155" uniqueCount="132">
   <si>
     <t>GCL</t>
   </si>
@@ -375,9 +375,6 @@
     <t>Assumed that catch in Uchucklesaht Inlet was 100% Hucuktlis and catch in Somass estuary was 100% Somass</t>
   </si>
   <si>
-    <t>Table 9 in Labelle et al unpublished PSARC</t>
-  </si>
-  <si>
     <t>source</t>
   </si>
   <si>
@@ -439,21 +436,6 @@
   </si>
   <si>
     <t>Bob recommends running model with and without fishery officer estimates and see what the difference</t>
-  </si>
-  <si>
-    <t>Revisit the data to 2011 and have an educated guess based on how much of the catch was sampled</t>
-  </si>
-  <si>
-    <t>How to format a table of fisheries sampled per year… going back how far?</t>
-  </si>
-  <si>
-    <t>- Diana D to help find old files that were containing post-season information</t>
-  </si>
-  <si>
-    <t>- ask Eric rondeau for DNA sample numbers going back many years</t>
-  </si>
-  <si>
-    <t>Double check for any uncertainty commented on in Starr &amp; Argue</t>
   </si>
   <si>
     <t>brood_removals</t>
@@ -578,7 +560,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3CA6C59C-E095-470D-BCB1-C1EB8BB18B95}" name="Table2" displayName="Table2" ref="A1:F280" totalsRowShown="0">
   <autoFilter ref="A1:F280" xr:uid="{3CA6C59C-E095-470D-BCB1-C1EB8BB18B95}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F280">
-    <sortCondition descending="1" ref="A1:A280"/>
+    <sortCondition ref="B1:B280"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{88FB42A8-D3F4-4FB0-8574-5D2111385BF3}" name="year"/>
@@ -1126,8 +1108,8 @@
   <dimension ref="A1:L689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E684" sqref="E684:E689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1159,10 +1141,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I1" t="s">
         <v>55</v>
@@ -26181,8 +26163,8 @@
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26202,13 +26184,13 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" t="s">
-        <v>118</v>
-      </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
         <v>83</v>
@@ -26294,7 +26276,7 @@
         <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -26314,7 +26296,7 @@
         <v>36</v>
       </c>
       <c r="Q6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -26334,7 +26316,7 @@
         <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -26355,7 +26337,7 @@
         <v>36</v>
       </c>
       <c r="Q8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -26376,7 +26358,7 @@
         <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -26397,7 +26379,7 @@
         <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -26418,7 +26400,7 @@
         <v>36</v>
       </c>
       <c r="Q11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -26439,7 +26421,7 @@
         <v>36</v>
       </c>
       <c r="Q12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -26463,7 +26445,7 @@
         <v>36</v>
       </c>
       <c r="Q13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s">
         <v>78</v>
@@ -26493,7 +26475,7 @@
         <v>36</v>
       </c>
       <c r="Q14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R14" t="s">
         <v>78</v>
@@ -26522,7 +26504,7 @@
         <v>36</v>
       </c>
       <c r="Q15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R15" t="s">
         <v>78</v>
@@ -26548,7 +26530,7 @@
         <v>36</v>
       </c>
       <c r="Q16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -26572,7 +26554,7 @@
         <v>36</v>
       </c>
       <c r="Q17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R17" t="s">
         <v>78</v>
@@ -26602,7 +26584,7 @@
         <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R18" t="s">
         <v>78</v>
@@ -26632,7 +26614,7 @@
         <v>36</v>
       </c>
       <c r="Q19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R19" t="s">
         <v>78</v>
@@ -26661,7 +26643,7 @@
         <v>36</v>
       </c>
       <c r="Q20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R20" t="s">
         <v>78</v>
@@ -26690,7 +26672,7 @@
         <v>36</v>
       </c>
       <c r="Q21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R21" t="s">
         <v>78</v>
@@ -26716,7 +26698,7 @@
         <v>36</v>
       </c>
       <c r="Q22" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -26736,7 +26718,7 @@
         <v>36</v>
       </c>
       <c r="Q23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -26759,7 +26741,7 @@
         <v>36</v>
       </c>
       <c r="Q24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -26782,7 +26764,7 @@
         <v>36</v>
       </c>
       <c r="Q25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -31666,9 +31648,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95FC0BAD-3412-4CD1-924D-26A01469586A}">
   <dimension ref="A1:L280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31714,35 +31696,41 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
       </c>
+      <c r="D3" s="1">
+        <v>209265.00000000006</v>
+      </c>
       <c r="E3">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="D4" s="1">
+        <v>235763</v>
       </c>
       <c r="E4">
-        <v>0.156</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -31751,7 +31739,7 @@
         <v>57</v>
       </c>
       <c r="D5" s="1">
-        <v>209265.00000000006</v>
+        <v>225180</v>
       </c>
       <c r="E5">
         <v>0.05</v>
@@ -31759,16 +31747,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="1">
-        <v>155018.00000000003</v>
+        <v>139976.06</v>
       </c>
       <c r="E6">
         <v>0.05</v>
@@ -31776,24 +31764,24 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D7" s="1">
-        <v>26226</v>
+        <v>48820.01</v>
       </c>
       <c r="E7">
-        <v>0.16600906841780941</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -31802,7 +31790,7 @@
         <v>57</v>
       </c>
       <c r="D8" s="1">
-        <v>235763</v>
+        <v>38619.789999999994</v>
       </c>
       <c r="E8">
         <v>0.05</v>
@@ -31810,16 +31798,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="1">
-        <v>415241</v>
+        <v>138816.99999999994</v>
       </c>
       <c r="E9">
         <v>0.05</v>
@@ -31827,24 +31815,24 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1">
-        <v>37292</v>
+        <v>224362.25999999998</v>
       </c>
       <c r="E10">
-        <v>0.16584716246670761</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -31853,7 +31841,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="1">
-        <v>225180</v>
+        <v>427539.07000000007</v>
       </c>
       <c r="E11">
         <v>0.05</v>
@@ -31861,16 +31849,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="1">
-        <v>182340</v>
+        <v>162685.75797453261</v>
       </c>
       <c r="E12">
         <v>0.05</v>
@@ -31878,24 +31866,24 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1">
-        <v>14520</v>
+        <v>184732.50000000006</v>
       </c>
       <c r="E13">
-        <v>0.13872770735384554</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
@@ -31904,7 +31892,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="1">
-        <v>139976.06</v>
+        <v>149343.99999999991</v>
       </c>
       <c r="E14">
         <v>0.05</v>
@@ -31912,16 +31900,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="1">
-        <v>169445.09</v>
+        <v>445819.99999999988</v>
       </c>
       <c r="E15">
         <v>0.05</v>
@@ -31929,24 +31917,24 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1">
-        <v>4589</v>
+        <v>343998.99999999994</v>
       </c>
       <c r="E16">
-        <v>0.22037802098684897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
@@ -31955,2015 +31943,2001 @@
         <v>57</v>
       </c>
       <c r="D17" s="1">
-        <v>48820.01</v>
+        <v>222241.28766492326</v>
       </c>
       <c r="E17">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1">
-        <v>129356.01000000001</v>
+        <v>74024.006756756746</v>
       </c>
       <c r="E18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2019</v>
+        <v>2007</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1">
-        <v>13549</v>
+        <v>77622.000000000058</v>
       </c>
       <c r="E19">
-        <v>0.21605842584453777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="B20" t="s">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1">
-        <v>38619.789999999994</v>
+        <v>136246.72968558595</v>
       </c>
       <c r="E20">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2018</v>
+        <v>2005</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1">
-        <v>157812.32000000018</v>
+        <v>194678.14078321864</v>
       </c>
       <c r="E21">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2018</v>
+        <v>2004</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1">
-        <v>12203</v>
+        <v>224638.00000000003</v>
       </c>
       <c r="E22">
-        <v>0.21454253745773427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1">
-        <v>138816.99999999994</v>
+        <v>250967.63070786477</v>
       </c>
       <c r="E23">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2017</v>
+        <v>2002</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1">
-        <v>296471.68000000017</v>
+        <v>284855.78066405328</v>
       </c>
       <c r="E24">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2017</v>
+        <v>2001</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1">
-        <v>22704</v>
+        <v>408826.86224323697</v>
       </c>
       <c r="E25">
-        <v>0.22360504672842893</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2016</v>
+        <v>2000</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1">
-        <v>224362.25999999998</v>
+        <v>71659.000000000044</v>
       </c>
       <c r="E26">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>2016</v>
+        <v>1999</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1">
-        <v>233152.75</v>
+        <v>211111.27927667467</v>
       </c>
       <c r="E27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2016</v>
+        <v>1998</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1">
-        <v>21400</v>
+        <v>274013.00000000006</v>
       </c>
       <c r="E28">
-        <v>0.22259276904345981</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2015</v>
+        <v>1997</v>
       </c>
       <c r="B29" t="s">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1">
-        <v>427539.07000000007</v>
+        <v>178115.99999999994</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2015</v>
+        <v>1996</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1">
-        <v>330247.56999999989</v>
+        <v>186382</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1">
-        <v>6400</v>
+        <v>64011.000000000007</v>
       </c>
       <c r="E31">
-        <v>0.21591389457939061</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2014</v>
+        <v>1994</v>
       </c>
       <c r="B32" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1">
-        <v>162685.75797453261</v>
+        <v>113493.00000000006</v>
       </c>
       <c r="E32">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2014</v>
+        <v>1993</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1">
-        <v>365429.09048463643</v>
+        <v>241761</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1">
-        <v>11837</v>
+        <v>188153.00000000003</v>
       </c>
       <c r="E34">
-        <v>0.22431324313243131</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="B35" t="s">
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1">
-        <v>184732.50000000006</v>
+        <v>433390.00000000017</v>
       </c>
       <c r="E35">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2013</v>
+        <v>1990</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D36" s="1">
-        <v>467725.08645878843</v>
+        <v>179091</v>
       </c>
       <c r="E36">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2013</v>
+        <v>1989</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1">
-        <v>12500</v>
+        <v>241263.00000000006</v>
       </c>
       <c r="E37">
-        <v>0.28630204438181295</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2012</v>
+        <v>1988</v>
       </c>
       <c r="B38" t="s">
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D38" s="1">
-        <v>149343.99999999991</v>
+        <v>206676.00000000009</v>
       </c>
       <c r="E38">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2012</v>
+        <v>1987</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1">
-        <v>229381</v>
+        <v>290714.99999999994</v>
       </c>
       <c r="E39">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2012</v>
+        <v>1986</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1">
-        <v>17133</v>
+        <v>137807</v>
       </c>
       <c r="E40">
-        <v>0.20514167323236743</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2011</v>
+        <v>1985</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1">
-        <v>445819.99999999988</v>
+        <v>120274.00000000001</v>
       </c>
       <c r="E41">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2011</v>
+        <v>1984</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1">
-        <v>439213.99999999988</v>
+        <v>133310.00000000003</v>
       </c>
       <c r="E42">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2011</v>
+        <v>1983</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1">
-        <v>40846</v>
+        <v>348101.99999999994</v>
       </c>
       <c r="E43">
-        <v>0.12491984977557935</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2010</v>
+        <v>1982</v>
       </c>
       <c r="B44" t="s">
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1">
-        <v>343998.99999999994</v>
+        <v>179420.00000000003</v>
       </c>
       <c r="E44">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2010</v>
+        <v>1981</v>
       </c>
       <c r="B45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1">
-        <v>456436.00000000006</v>
+        <v>213537.99999999997</v>
       </c>
       <c r="E45">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2010</v>
+        <v>1980</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1">
-        <v>30000</v>
+        <v>256516.00000000003</v>
       </c>
       <c r="E46">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="B47" t="s">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1">
-        <v>222241.28766492326</v>
+        <v>263995</v>
       </c>
       <c r="E47">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2009</v>
+        <v>1978</v>
       </c>
       <c r="B48" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1">
-        <v>177831.00000000006</v>
+        <v>114400</v>
       </c>
       <c r="E48">
-        <v>7.0000000000000007E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2009</v>
+        <v>1977</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1">
-        <v>90000</v>
+        <v>212200.00000000003</v>
       </c>
       <c r="E49">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2008</v>
+        <v>1976</v>
       </c>
       <c r="B50" t="s">
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D50" s="1">
-        <v>74024.006756756746</v>
+        <v>100600</v>
       </c>
       <c r="E50">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F50" t="s">
-        <v>126</v>
+        <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2008</v>
+        <v>1975</v>
       </c>
       <c r="B51" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D51" s="1">
-        <v>116844</v>
+        <v>138100</v>
       </c>
       <c r="E51">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2008</v>
+        <v>1974</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D52" s="1">
-        <v>13100</v>
+        <v>56300</v>
       </c>
       <c r="E52">
-        <v>0.17291608620630658</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2007</v>
+        <v>1973</v>
       </c>
       <c r="B53" t="s">
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D53" s="1">
-        <v>77622.000000000058</v>
+        <v>216100</v>
       </c>
       <c r="E53">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D54" s="1">
-        <v>72693</v>
+        <v>93300</v>
       </c>
       <c r="E54">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2007</v>
+        <v>1971</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D55" s="1">
-        <v>25000</v>
+        <v>39200</v>
       </c>
       <c r="E55">
-        <v>0.2200120092496774</v>
+        <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2006</v>
+        <v>1970</v>
       </c>
       <c r="B56" t="s">
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D56" s="1">
-        <v>136246.72968558595</v>
+        <v>15100</v>
       </c>
       <c r="E56">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2006</v>
+        <v>1969</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D57" s="1">
-        <v>63788.999999999978</v>
+        <v>72900</v>
       </c>
       <c r="E57">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2006</v>
+        <v>1968</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1">
-        <v>3600</v>
+        <v>78600</v>
       </c>
       <c r="E58">
-        <v>0.5</v>
-      </c>
-      <c r="F58" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2005</v>
+        <v>1967</v>
       </c>
       <c r="B59" t="s">
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D59" s="1">
-        <v>194678.14078321864</v>
+        <v>33500</v>
       </c>
       <c r="E59">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2005</v>
+        <v>1966</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60" s="1">
-        <v>151138.99971287217</v>
+        <v>68000</v>
       </c>
       <c r="E60">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2005</v>
+        <v>1965</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D61" s="1">
-        <v>1300</v>
+        <v>23000</v>
       </c>
       <c r="E61">
-        <v>0.5</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2004</v>
+        <v>1964</v>
       </c>
       <c r="B62" t="s">
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D62" s="1">
-        <v>224638.00000000003</v>
+        <v>70000</v>
       </c>
       <c r="E62">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2004</v>
+        <v>1963</v>
       </c>
       <c r="B63" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D63" s="1">
-        <v>150443</v>
+        <v>6000</v>
       </c>
       <c r="E63">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2004</v>
+        <v>1962</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D64" s="1">
-        <v>2600</v>
+        <v>13000</v>
       </c>
       <c r="E64">
-        <v>0.5</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2003</v>
+        <v>1961</v>
       </c>
       <c r="B65" t="s">
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D65" s="1">
-        <v>250967.63070786477</v>
+        <v>18000</v>
       </c>
       <c r="E65">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2003</v>
+        <v>1960</v>
       </c>
       <c r="B66" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D66" s="1">
-        <v>188907.99999999994</v>
+        <v>20000</v>
       </c>
       <c r="E66">
-        <v>0.12</v>
-      </c>
-      <c r="F66" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2003</v>
+        <v>1959</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D67" s="1">
-        <v>3300</v>
+        <v>20000</v>
       </c>
       <c r="E67">
-        <v>0.5</v>
-      </c>
-      <c r="F67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2002</v>
+        <v>1958</v>
       </c>
       <c r="B68" t="s">
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D68" s="1">
-        <v>284855.78066405328</v>
+        <v>20000</v>
       </c>
       <c r="E68">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2002</v>
+        <v>1957</v>
       </c>
       <c r="B69" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D69" s="1">
-        <v>220189.00000000015</v>
+        <v>100000</v>
       </c>
       <c r="E69">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2002</v>
+        <v>1956</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D70" s="1">
-        <v>17700</v>
+        <v>5000</v>
       </c>
       <c r="E70">
-        <v>0.5</v>
-      </c>
-      <c r="F70" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2001</v>
+        <v>1955</v>
       </c>
       <c r="B71" t="s">
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D71" s="1">
-        <v>408826.86224323697</v>
+        <v>15000</v>
       </c>
       <c r="E71">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2001</v>
+        <v>1954</v>
       </c>
       <c r="B72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D72" s="1">
-        <v>371518</v>
+        <v>20000</v>
       </c>
       <c r="E72">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2001</v>
+        <v>1953</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D73" s="1">
-        <v>39800</v>
+        <v>30000</v>
       </c>
       <c r="E73">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2000</v>
+        <v>1952</v>
       </c>
       <c r="B74" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D74" s="1">
-        <v>71659.000000000044</v>
+        <v>12000</v>
       </c>
       <c r="E74">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2000</v>
+        <v>1951</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D75" s="1">
-        <v>126339.00000000004</v>
+        <v>50000</v>
       </c>
       <c r="E75">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D76" s="1">
-        <v>25100</v>
+        <v>20000</v>
       </c>
       <c r="E76">
-        <v>0.21149281245857188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1999</v>
+        <v>1949</v>
       </c>
       <c r="B77" t="s">
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D77" s="1">
-        <v>211111.27927667467</v>
+        <v>50418</v>
       </c>
       <c r="E77">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>1999</v>
+        <v>1948</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D78" s="1">
-        <v>169635.93442580631</v>
+        <v>4167</v>
       </c>
       <c r="E78">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>1999</v>
+        <v>1947</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D79" s="1">
-        <v>13400</v>
+        <v>5900</v>
       </c>
       <c r="E79">
-        <v>0.23482047371727546</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1998</v>
+        <v>1946</v>
       </c>
       <c r="B80" t="s">
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D80" s="1">
-        <v>274013.00000000006</v>
+        <v>5986</v>
       </c>
       <c r="E80">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>1998</v>
+        <v>1945</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D81" s="1">
-        <v>274014.00000000006</v>
+        <v>26245</v>
       </c>
       <c r="E81">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>1998</v>
+        <v>1944</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>184200</v>
+        <v>4537</v>
       </c>
       <c r="E82">
-        <v>0.23200769900045567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>1997</v>
+        <v>1943</v>
       </c>
       <c r="B83" t="s">
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D83" s="1">
-        <v>178115.99999999994</v>
+        <v>5421</v>
       </c>
       <c r="E83">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1997</v>
+        <v>1942</v>
       </c>
       <c r="B84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D84" s="1">
-        <v>131888</v>
+        <v>15823</v>
       </c>
       <c r="E84">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>1997</v>
+        <v>1941</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D85" s="1">
-        <v>46200</v>
+        <v>14625</v>
       </c>
       <c r="E85">
-        <v>0.1699117016239102</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>1996</v>
+        <v>1940</v>
       </c>
       <c r="B86" t="s">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D86" s="1">
-        <v>186382</v>
+        <v>2936</v>
       </c>
       <c r="E86">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>1996</v>
+        <v>1939</v>
       </c>
       <c r="B87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D87" s="1">
-        <v>255498.00000000003</v>
+        <v>3119</v>
       </c>
       <c r="E87">
-        <v>0.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1996</v>
+        <v>1938</v>
       </c>
       <c r="B88" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D88" s="1">
-        <v>119800</v>
+        <v>5894</v>
       </c>
       <c r="E88">
-        <v>0.22188006002656471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>1995</v>
+        <v>1937</v>
       </c>
       <c r="B89" t="s">
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D89" s="1">
-        <v>64011.000000000007</v>
+        <v>7365</v>
       </c>
       <c r="E89">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>1995</v>
+        <v>1936</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D90" s="1">
-        <v>102399.99999999997</v>
+        <v>12206</v>
       </c>
       <c r="E90">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>1995</v>
+        <v>1935</v>
       </c>
       <c r="B91" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D91" s="1">
-        <v>4400</v>
+        <v>5953</v>
       </c>
       <c r="E91">
-        <v>0.25136864831521316</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1994</v>
+        <v>1934</v>
       </c>
       <c r="B92" t="s">
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D92" s="1">
-        <v>113493.00000000006</v>
+        <v>4858</v>
       </c>
       <c r="E92">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>1994</v>
+        <v>1933</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D93" s="1">
-        <v>143770.00000000003</v>
+        <v>1706</v>
       </c>
       <c r="E93">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>1994</v>
+        <v>1932</v>
       </c>
       <c r="B94" t="s">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D94" s="1">
-        <v>17400</v>
+        <v>2472</v>
       </c>
       <c r="E94">
-        <v>0.22549773276736074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1993</v>
+        <v>1931</v>
       </c>
       <c r="B95" t="s">
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D95" s="1">
-        <v>241761</v>
+        <v>6920</v>
       </c>
       <c r="E95">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1993</v>
+        <v>1930</v>
       </c>
       <c r="B96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D96" s="1">
-        <v>205288.99999999997</v>
+        <v>9501</v>
       </c>
       <c r="E96">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>1993</v>
+        <v>1929</v>
       </c>
       <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>80</v>
+      </c>
+      <c r="D97" s="1">
+        <v>3018</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1926</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" s="1">
+        <v>10695</v>
+      </c>
+      <c r="E98">
+        <f>(11000-D98)/D98</f>
+        <v>2.8517999064983639E-2</v>
+      </c>
+      <c r="F98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1918</v>
+      </c>
+      <c r="B99" t="s">
         <v>105</v>
       </c>
-      <c r="C97" t="s">
-        <v>44</v>
-      </c>
-      <c r="D97" s="1">
-        <v>180500</v>
-      </c>
-      <c r="E97">
-        <v>0.23727460464521011</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1992</v>
-      </c>
-      <c r="B98" t="s">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>73</v>
-      </c>
-      <c r="D98" s="1">
-        <v>188153.00000000003</v>
-      </c>
-      <c r="E98">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>1992</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1</v>
-      </c>
       <c r="C99" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D99" s="1">
-        <v>221937.99999999994</v>
+        <v>7000</v>
       </c>
       <c r="E99">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1992</v>
+        <v>1919</v>
       </c>
       <c r="B100" t="s">
         <v>105</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D100" s="1">
-        <v>27700</v>
+        <v>8000</v>
       </c>
       <c r="E100">
-        <v>0.22515487531886094</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1991</v>
+        <v>1920</v>
       </c>
       <c r="B101" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D101" s="1">
-        <v>433390.00000000017</v>
+        <v>38000</v>
       </c>
       <c r="E101">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>1991</v>
+        <v>1921</v>
       </c>
       <c r="B102" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C102" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D102" s="1">
-        <v>209474.99999999997</v>
+        <v>1000</v>
       </c>
       <c r="E102">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>1991</v>
+        <v>1922</v>
       </c>
       <c r="B103" t="s">
         <v>105</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D103" s="1">
-        <v>38100</v>
+        <v>70000</v>
       </c>
       <c r="E103">
-        <v>0.22653465764112946</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>1990</v>
+        <v>1923</v>
       </c>
       <c r="B104" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D104" s="1">
-        <v>179091</v>
+        <v>90000</v>
       </c>
       <c r="E104">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1990</v>
+        <v>1924</v>
       </c>
       <c r="B105" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C105" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D105" s="1">
-        <v>112790.00000000003</v>
+        <v>120000</v>
       </c>
       <c r="E105">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>1990</v>
+        <v>1925</v>
       </c>
       <c r="B106" t="s">
         <v>105</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D106" s="1">
-        <v>31400</v>
+        <v>80000</v>
       </c>
       <c r="E106">
-        <v>0.21762188428855095</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>1989</v>
+        <v>1926</v>
       </c>
       <c r="B107" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C107" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D107" s="1">
-        <v>241263.00000000006</v>
+        <v>65000</v>
       </c>
       <c r="E107">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>1989</v>
+        <v>1927</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D108" s="1">
-        <v>167987.00000000006</v>
+        <v>70000</v>
       </c>
       <c r="E108">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1989</v>
+        <v>1928</v>
       </c>
       <c r="B109" t="s">
         <v>105</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D109" s="1">
-        <v>40600</v>
+        <v>70000</v>
       </c>
       <c r="E109">
-        <v>0.21775258874163719</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>1988</v>
+        <v>1929</v>
       </c>
       <c r="B110" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C110" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D110" s="1">
-        <v>206676.00000000009</v>
+        <v>135000</v>
       </c>
       <c r="E110">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>1988</v>
+        <v>1930</v>
       </c>
       <c r="B111" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C111" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D111" s="1">
-        <v>235417</v>
+        <v>40000</v>
       </c>
       <c r="E111">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1988</v>
+        <v>1931</v>
       </c>
       <c r="B112" t="s">
         <v>105</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D112" s="1">
-        <v>40300</v>
+        <v>50000</v>
       </c>
       <c r="E112">
-        <v>0.21258162135291372</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1987</v>
+        <v>1932</v>
       </c>
       <c r="B113" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C113" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D113" s="1">
-        <v>290714.99999999994</v>
+        <v>35000</v>
       </c>
       <c r="E113">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>1987</v>
+        <v>1933</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C114" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D114" s="1">
-        <v>151834.99999999997</v>
+        <v>7500</v>
       </c>
       <c r="E114">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1987</v>
+        <v>1934</v>
       </c>
       <c r="B115" t="s">
         <v>105</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D115" s="1">
-        <v>30800</v>
+        <v>15000</v>
       </c>
       <c r="E115">
-        <v>0.25021215171173306</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>1986</v>
+        <v>1935</v>
       </c>
       <c r="B116" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C116" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D116" s="1">
-        <v>137807</v>
+        <v>45000</v>
       </c>
       <c r="E116">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>1986</v>
+        <v>1936</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D117" s="1">
-        <v>192941.00000000003</v>
+        <v>2000</v>
       </c>
       <c r="E117">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>1986</v>
+        <v>1937</v>
       </c>
       <c r="B118" t="s">
         <v>105</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D118" s="1">
-        <v>3900</v>
+        <v>38000</v>
       </c>
       <c r="E118">
-        <v>0.21124466595003091</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>1985</v>
+        <v>1938</v>
       </c>
       <c r="B119" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D119" s="1">
-        <v>120274.00000000001</v>
+        <v>10000</v>
       </c>
       <c r="E119">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1985</v>
+        <v>1939</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C120" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D120" s="1">
-        <v>146951</v>
+        <v>14000</v>
       </c>
       <c r="E120">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>1985</v>
+        <v>1940</v>
       </c>
       <c r="B121" t="s">
         <v>105</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D121" s="1">
-        <v>18500</v>
+        <v>60000</v>
       </c>
       <c r="E121">
-        <v>0.21758873706685308</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1984</v>
+        <v>1941</v>
       </c>
       <c r="B122" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C122" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D122" s="1">
-        <v>133310.00000000003</v>
+        <v>2000</v>
       </c>
       <c r="E122">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>1984</v>
+        <v>1942</v>
       </c>
       <c r="B123" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C123" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D123" s="1">
-        <v>89100</v>
+        <v>7000</v>
       </c>
       <c r="E123">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>1984</v>
+        <v>1943</v>
       </c>
       <c r="B124" t="s">
         <v>105</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D124" s="1">
-        <v>73400</v>
+        <v>5000</v>
       </c>
       <c r="E124">
-        <v>0.22444827136850473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1983</v>
+        <v>1944</v>
       </c>
       <c r="B125" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C125" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D125" s="1">
-        <v>348101.99999999994</v>
+        <v>5000</v>
       </c>
       <c r="E125">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>1983</v>
+        <v>1945</v>
       </c>
       <c r="B126" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C126" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D126" s="1">
-        <v>257410</v>
+        <v>14000</v>
       </c>
       <c r="E126">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>1983</v>
+        <v>1946</v>
       </c>
       <c r="B127" t="s">
         <v>105</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D127" s="1">
-        <v>31000</v>
+        <v>14000</v>
       </c>
       <c r="E127">
-        <v>0.28209138540089645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1982</v>
+        <v>1947</v>
       </c>
       <c r="B128" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C128" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D128" s="1">
-        <v>179420.00000000003</v>
+        <v>7000</v>
       </c>
       <c r="E128">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>1982</v>
+        <v>1948</v>
       </c>
       <c r="B129" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C129" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D129" s="1">
-        <v>248700.00000000003</v>
+        <v>7000</v>
       </c>
       <c r="E129">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1982</v>
+        <v>1949</v>
       </c>
       <c r="B130" t="s">
         <v>105</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D130" s="1">
-        <v>36700</v>
+        <v>30000</v>
       </c>
       <c r="E130">
-        <v>0.19066961047375575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>1981</v>
+        <v>1950</v>
       </c>
       <c r="B131" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C131" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D131" s="1">
-        <v>213537.99999999997</v>
+        <v>14000</v>
       </c>
       <c r="E131">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>1981</v>
+        <v>1951</v>
       </c>
       <c r="B132" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C132" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D132" s="1">
-        <v>139251</v>
+        <v>14000</v>
       </c>
       <c r="E132">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="I132" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>1981</v>
+        <v>1952</v>
       </c>
       <c r="B133" t="s">
         <v>105</v>
@@ -33972,52 +33946,52 @@
         <v>80</v>
       </c>
       <c r="D133" s="1">
-        <v>58000</v>
+        <v>14000</v>
       </c>
       <c r="E133">
-        <v>0.22252145376781166</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>1980</v>
+        <v>1953</v>
       </c>
       <c r="B134" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C134" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D134" s="1">
-        <v>256516.00000000003</v>
+        <v>14000</v>
       </c>
       <c r="E134">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>1980</v>
+        <v>1954</v>
       </c>
       <c r="B135" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C135" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D135" s="1">
-        <v>137990</v>
+        <v>30000</v>
       </c>
       <c r="E135">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1980</v>
+        <v>1955</v>
       </c>
       <c r="B136" t="s">
         <v>105</v>
@@ -34026,7 +34000,7 @@
         <v>80</v>
       </c>
       <c r="D136" s="1">
-        <v>20706</v>
+        <v>14000</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -34034,41 +34008,41 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>1979</v>
+        <v>1956</v>
       </c>
       <c r="B137" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C137" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D137" s="1">
-        <v>263995</v>
+        <v>7000</v>
       </c>
       <c r="E137">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1979</v>
+        <v>1957</v>
       </c>
       <c r="B138" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C138" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D138" s="1">
-        <v>76445.999999999985</v>
+        <v>7000</v>
       </c>
       <c r="E138">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>1979</v>
+        <v>1958</v>
       </c>
       <c r="B139" t="s">
         <v>105</v>
@@ -34077,7 +34051,7 @@
         <v>80</v>
       </c>
       <c r="D139" s="1">
-        <v>20000</v>
+        <v>14000</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -34085,41 +34059,41 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>1978</v>
+        <v>1959</v>
       </c>
       <c r="B140" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C140" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D140" s="1">
-        <v>114400</v>
+        <v>14000</v>
       </c>
       <c r="E140">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1978</v>
+        <v>1960</v>
       </c>
       <c r="B141" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C141" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D141" s="1">
-        <v>37500</v>
+        <v>10000</v>
       </c>
       <c r="E141">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>1978</v>
+        <v>1961</v>
       </c>
       <c r="B142" t="s">
         <v>105</v>
@@ -34128,7 +34102,7 @@
         <v>80</v>
       </c>
       <c r="D142" s="1">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -34136,41 +34110,41 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="B143" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C143" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D143" s="1">
-        <v>212200.00000000003</v>
+        <v>30000</v>
       </c>
       <c r="E143">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>1977</v>
+        <v>1963</v>
       </c>
       <c r="B144" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C144" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D144" s="1">
-        <v>80799.999999999985</v>
+        <v>18000</v>
       </c>
       <c r="E144">
-        <v>0.12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>1977</v>
+        <v>1964</v>
       </c>
       <c r="B145" t="s">
         <v>105</v>
@@ -34179,7 +34153,7 @@
         <v>80</v>
       </c>
       <c r="D145" s="1">
-        <v>4800</v>
+        <v>30000</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -34187,16 +34161,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1976</v>
+        <v>1965</v>
       </c>
       <c r="B146" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C146" t="s">
         <v>80</v>
       </c>
       <c r="D146" s="1">
-        <v>100600</v>
+        <v>18000</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -34204,16 +34178,16 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>1976</v>
+        <v>1966</v>
       </c>
       <c r="B147" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C147" t="s">
         <v>80</v>
       </c>
       <c r="D147" s="1">
-        <v>47700</v>
+        <v>80000</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -34221,7 +34195,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="B148" t="s">
         <v>105</v>
@@ -34230,7 +34204,7 @@
         <v>80</v>
       </c>
       <c r="D148" s="1">
-        <v>3500</v>
+        <v>80000</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -34238,16 +34212,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1975</v>
+        <v>1968</v>
       </c>
       <c r="B149" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C149" t="s">
         <v>80</v>
       </c>
       <c r="D149" s="1">
-        <v>138100</v>
+        <v>30000</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -34255,16 +34229,16 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>1975</v>
+        <v>1969</v>
       </c>
       <c r="B150" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C150" t="s">
         <v>80</v>
       </c>
       <c r="D150" s="1">
-        <v>47500</v>
+        <v>18000</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -34272,7 +34246,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="B151" t="s">
         <v>105</v>
@@ -34281,7 +34255,7 @@
         <v>80</v>
       </c>
       <c r="D151" s="1">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -34289,16 +34263,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>1974</v>
+        <v>1971</v>
       </c>
       <c r="B152" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C152" t="s">
         <v>80</v>
       </c>
       <c r="D152" s="1">
-        <v>56300</v>
+        <v>7500</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -34306,16 +34280,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C153" t="s">
         <v>80</v>
       </c>
       <c r="D153" s="1">
-        <v>35800</v>
+        <v>3500</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -34323,7 +34297,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B154" t="s">
         <v>105</v>
@@ -34332,7 +34306,7 @@
         <v>80</v>
       </c>
       <c r="D154" s="1">
-        <v>6000</v>
+        <v>40000</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -34340,16 +34314,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="B155" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C155" t="s">
         <v>80</v>
       </c>
       <c r="D155" s="1">
-        <v>216100</v>
+        <v>6000</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -34357,16 +34331,16 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="B156" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C156" t="s">
         <v>80</v>
       </c>
       <c r="D156" s="1">
-        <v>45600</v>
+        <v>10000</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -34374,7 +34348,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="B157" t="s">
         <v>105</v>
@@ -34383,7 +34357,7 @@
         <v>80</v>
       </c>
       <c r="D157" s="1">
-        <v>40000</v>
+        <v>3500</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -34391,16 +34365,16 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="B158" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C158" t="s">
         <v>80</v>
       </c>
       <c r="D158" s="1">
-        <v>93300</v>
+        <v>4800</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -34408,16 +34382,16 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>1972</v>
+        <v>1978</v>
       </c>
       <c r="B159" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C159" t="s">
         <v>80</v>
       </c>
       <c r="D159" s="1">
-        <v>42600</v>
+        <v>7000</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -34425,7 +34399,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1972</v>
+        <v>1979</v>
       </c>
       <c r="B160" t="s">
         <v>105</v>
@@ -34434,7 +34408,7 @@
         <v>80</v>
       </c>
       <c r="D160" s="1">
-        <v>3500</v>
+        <v>20000</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -34442,16 +34416,16 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>1971</v>
+        <v>1980</v>
       </c>
       <c r="B161" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C161" t="s">
         <v>80</v>
       </c>
       <c r="D161" s="1">
-        <v>39200</v>
+        <v>20706</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -34459,1580 +34433,1601 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>1971</v>
+        <v>1981</v>
       </c>
       <c r="B162" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C162" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D162" s="1">
-        <v>25000</v>
+        <v>58000</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0.24962676592138761</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>1971</v>
+        <v>1982</v>
       </c>
       <c r="B163" t="s">
         <v>105</v>
       </c>
       <c r="C163" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D163" s="1">
-        <v>7500</v>
+        <v>36700</v>
       </c>
       <c r="E163">
-        <v>1</v>
+        <v>0.21117148857584175</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1970</v>
+        <v>1983</v>
       </c>
       <c r="B164" t="s">
         <v>105</v>
       </c>
       <c r="C164" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D164" s="1">
-        <v>9000</v>
+        <v>31000</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>0.29222062058095055</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>1970</v>
+        <v>1984</v>
       </c>
       <c r="B165" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C165" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D165" s="1">
-        <v>15100</v>
+        <v>73400</v>
       </c>
       <c r="E165">
-        <v>1</v>
+        <v>0.25651781924171535</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1970</v>
+        <v>1985</v>
       </c>
       <c r="B166" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C166" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D166" s="1">
-        <v>18000</v>
+        <v>18500</v>
       </c>
       <c r="E166">
-        <v>1</v>
+        <v>0.24510986428229789</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1969</v>
+        <v>1986</v>
       </c>
       <c r="B167" t="s">
         <v>105</v>
       </c>
       <c r="C167" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D167" s="1">
-        <v>18000</v>
+        <v>3900</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0.24197298338672557</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1969</v>
+        <v>1987</v>
       </c>
       <c r="B168" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C168" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D168" s="1">
-        <v>72900</v>
+        <v>30800</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0.27654574778206115</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>1969</v>
+        <v>1988</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C169" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D169" s="1">
-        <v>24000</v>
+        <v>40300</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0.23100420268378496</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>1968</v>
+        <v>1989</v>
       </c>
       <c r="B170" t="s">
         <v>105</v>
       </c>
       <c r="C170" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D170" s="1">
-        <v>30000</v>
+        <v>40600</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0.2464772207893425</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1968</v>
+        <v>1990</v>
       </c>
       <c r="B171" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C171" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D171" s="1">
-        <v>78600</v>
+        <v>31400</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0.24803058763168839</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>1968</v>
+        <v>1991</v>
       </c>
       <c r="B172" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C172" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D172" s="1">
-        <v>29000</v>
+        <v>38100</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0.25538524201540663</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>1967</v>
+        <v>1992</v>
       </c>
       <c r="B173" t="s">
         <v>105</v>
       </c>
       <c r="C173" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D173" s="1">
-        <v>80000</v>
+        <v>27700</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0.25506318913756831</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>1967</v>
+        <v>1993</v>
       </c>
       <c r="B174" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C174" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D174" s="1">
-        <v>33500</v>
+        <v>180500</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0.25535811601545821</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>1967</v>
+        <v>1994</v>
       </c>
       <c r="B175" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C175" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D175" s="1">
-        <v>22000</v>
+        <v>17400</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0.25532205661271629</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>1966</v>
+        <v>1995</v>
       </c>
       <c r="B176" t="s">
         <v>105</v>
       </c>
       <c r="C176" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D176" s="1">
-        <v>80000</v>
+        <v>4400</v>
       </c>
       <c r="E176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.28219999075301155</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>1966</v>
+        <v>1996</v>
       </c>
       <c r="B177" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C177" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D177" s="1">
-        <v>68000</v>
+        <v>119800</v>
       </c>
       <c r="E177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.25257250484647481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>1966</v>
+        <v>1997</v>
       </c>
       <c r="B178" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C178" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D178" s="1">
-        <v>28000</v>
+        <v>46200</v>
       </c>
       <c r="E178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.17869268215078102</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1965</v>
+        <v>1998</v>
       </c>
       <c r="B179" t="s">
         <v>105</v>
       </c>
       <c r="C179" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D179" s="1">
-        <v>18000</v>
+        <v>184200</v>
       </c>
       <c r="E179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.25621309457777047</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>1965</v>
+        <v>1999</v>
       </c>
       <c r="B180" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C180" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D180" s="1">
-        <v>23000</v>
+        <v>13400</v>
       </c>
       <c r="E180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.26206736546330245</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>1965</v>
+        <v>2000</v>
       </c>
       <c r="B181" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C181" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D181" s="1">
-        <v>15000</v>
+        <v>25100</v>
       </c>
       <c r="E181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.24504612982900445</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1964</v>
+        <v>2001</v>
       </c>
       <c r="B182" t="s">
         <v>105</v>
       </c>
       <c r="C182" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D182" s="1">
-        <v>30000</v>
+        <v>39800</v>
       </c>
       <c r="E182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F182" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>1964</v>
+        <v>2002</v>
       </c>
       <c r="B183" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C183" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D183" s="1">
-        <v>70000</v>
+        <v>17700</v>
       </c>
       <c r="E183">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1964</v>
+        <v>2003</v>
       </c>
       <c r="B184" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C184" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D184" s="1">
-        <v>13000</v>
+        <v>3300</v>
       </c>
       <c r="E184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F184" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>1963</v>
+        <v>2004</v>
       </c>
       <c r="B185" t="s">
         <v>105</v>
       </c>
       <c r="C185" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D185" s="1">
-        <v>18000</v>
+        <v>2600</v>
       </c>
       <c r="E185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F185" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1963</v>
+        <v>2005</v>
       </c>
       <c r="B186" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C186" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D186" s="1">
-        <v>6000</v>
+        <v>1300</v>
       </c>
       <c r="E186">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F186" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1963</v>
+        <v>2006</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C187" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D187" s="1">
-        <v>26000</v>
+        <v>3600</v>
       </c>
       <c r="E187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="F187" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>1962</v>
+        <v>2007</v>
       </c>
       <c r="B188" t="s">
         <v>105</v>
       </c>
       <c r="C188" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D188" s="1">
-        <v>30000</v>
+        <v>25000</v>
       </c>
       <c r="E188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.24872187173210539</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>1962</v>
+        <v>2008</v>
       </c>
       <c r="B189" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C189" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D189" s="1">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.18279384901560614</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1962</v>
+        <v>2009</v>
       </c>
       <c r="B190" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C190" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D190" s="1">
-        <v>15000</v>
+        <v>90000</v>
       </c>
       <c r="E190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>1961</v>
+        <v>2010</v>
       </c>
       <c r="B191" t="s">
         <v>105</v>
       </c>
       <c r="C191" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D191" s="1">
-        <v>14000</v>
+        <v>30000</v>
       </c>
       <c r="E191">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>1961</v>
+        <v>2011</v>
       </c>
       <c r="B192" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C192" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D192" s="1">
-        <v>18000</v>
+        <v>40846</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0.12764187029648841</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1961</v>
+        <v>2012</v>
       </c>
       <c r="B193" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C193" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D193" s="1">
-        <v>18000</v>
+        <v>17133</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0.22887474528630367</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>1960</v>
+        <v>2013</v>
       </c>
       <c r="B194" t="s">
         <v>105</v>
       </c>
       <c r="C194" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D194" s="1">
-        <v>10000</v>
+        <v>12500</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0.2903052391163663</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>1960</v>
+        <v>2014</v>
       </c>
       <c r="B195" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C195" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D195" s="1">
-        <v>20000</v>
+        <v>11837</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>0.25562150863923816</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>1960</v>
+        <v>2015</v>
       </c>
       <c r="B196" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C196" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D196" s="1">
-        <v>20000</v>
+        <v>6400</v>
       </c>
       <c r="E196">
-        <v>1</v>
+        <v>0.24144142403918198</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1959</v>
+        <v>2016</v>
       </c>
       <c r="B197" t="s">
         <v>105</v>
       </c>
       <c r="C197" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D197" s="1">
-        <v>14000</v>
+        <v>21400</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0.24977698028175724</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>1959</v>
+        <v>2017</v>
       </c>
       <c r="B198" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C198" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D198" s="1">
-        <v>20000</v>
+        <v>22704</v>
       </c>
       <c r="E198">
-        <v>1</v>
+        <v>0.24404555928749527</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>1959</v>
+        <v>2018</v>
       </c>
       <c r="B199" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C199" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D199" s="1">
-        <v>20000</v>
+        <v>12203</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0.24259054106824884</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1958</v>
+        <v>2019</v>
       </c>
       <c r="B200" t="s">
         <v>105</v>
       </c>
       <c r="C200" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D200" s="1">
-        <v>14000</v>
+        <v>13549</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0.2388851566095718</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>1958</v>
+        <v>2020</v>
       </c>
       <c r="B201" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C201" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D201" s="1">
-        <v>20000</v>
+        <v>4589</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0.2506997776881581</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1958</v>
+        <v>2021</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C202" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D202" s="1">
-        <v>20000</v>
+        <v>14520</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0.13975592184052893</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>1957</v>
+        <v>2022</v>
       </c>
       <c r="B203" t="s">
         <v>105</v>
       </c>
       <c r="C203" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D203" s="1">
-        <v>7000</v>
+        <v>37292</v>
       </c>
       <c r="E203">
-        <v>1</v>
+        <v>0.17599848400934634</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1957</v>
+        <v>2023</v>
       </c>
       <c r="B204" t="s">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C204" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="D204" s="1">
-        <v>100000</v>
+        <v>26226</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0.17617084523185156</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>1957</v>
+        <v>2024</v>
       </c>
       <c r="B205" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="C205" t="s">
-        <v>80</v>
-      </c>
-      <c r="D205" s="1">
-        <v>40000</v>
+        <v>44</v>
+      </c>
+      <c r="D205">
+        <v>3537</v>
       </c>
       <c r="E205">
-        <v>1</v>
+        <v>0.16772834307305123</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>1956</v>
+        <v>2024</v>
       </c>
       <c r="B206" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>80</v>
-      </c>
-      <c r="D206" s="1">
-        <v>7000</v>
+        <v>57</v>
+      </c>
+      <c r="D206">
+        <v>119995</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>1956</v>
+        <v>2023</v>
       </c>
       <c r="B207" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D207" s="1">
-        <v>5000</v>
+        <v>155018.00000000003</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>1956</v>
+        <v>2022</v>
       </c>
       <c r="B208" t="s">
         <v>1</v>
       </c>
       <c r="C208" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D208" s="1">
-        <v>5000</v>
+        <v>415241</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1955</v>
+        <v>2021</v>
       </c>
       <c r="B209" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C209" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D209" s="1">
-        <v>14000</v>
+        <v>182340</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>1955</v>
+        <v>2020</v>
       </c>
       <c r="B210" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C210" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D210" s="1">
-        <v>15000</v>
+        <v>169445.09</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1955</v>
+        <v>2019</v>
       </c>
       <c r="B211" t="s">
         <v>1</v>
       </c>
       <c r="C211" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D211" s="1">
-        <v>10000</v>
+        <v>129356.01000000001</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1954</v>
+        <v>2018</v>
       </c>
       <c r="B212" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C212" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D212" s="1">
-        <v>30000</v>
+        <v>157812.32000000018</v>
       </c>
       <c r="E212">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>1954</v>
+        <v>2017</v>
       </c>
       <c r="B213" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D213" s="1">
-        <v>20000</v>
+        <v>296471.68000000017</v>
       </c>
       <c r="E213">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>1954</v>
+        <v>2016</v>
       </c>
       <c r="B214" t="s">
         <v>1</v>
       </c>
       <c r="C214" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D214" s="1">
-        <v>15000</v>
+        <v>233152.75</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1953</v>
+        <v>2015</v>
       </c>
       <c r="B215" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C215" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D215" s="1">
-        <v>14000</v>
+        <v>330247.56999999989</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>1953</v>
+        <v>2014</v>
       </c>
       <c r="B216" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D216" s="1">
-        <v>30000</v>
+        <v>365429.09048463643</v>
       </c>
       <c r="E216">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>1953</v>
+        <v>2013</v>
       </c>
       <c r="B217" t="s">
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D217" s="1">
-        <v>20000</v>
+        <v>467725.08645878843</v>
       </c>
       <c r="E217">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1952</v>
+        <v>2012</v>
       </c>
       <c r="B218" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C218" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D218" s="1">
-        <v>14000</v>
+        <v>229381</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>1952</v>
+        <v>2011</v>
       </c>
       <c r="B219" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C219" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D219" s="1">
-        <v>12000</v>
+        <v>439213.99999999988</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>1952</v>
+        <v>2010</v>
       </c>
       <c r="B220" t="s">
         <v>1</v>
       </c>
       <c r="C220" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D220" s="1">
-        <v>10000</v>
+        <v>456436.00000000006</v>
       </c>
       <c r="E220">
-        <v>1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>1951</v>
+        <v>2009</v>
       </c>
       <c r="B221" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="D221" s="1">
-        <v>14000</v>
+        <v>177831.00000000006</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1951</v>
+        <v>2008</v>
       </c>
       <c r="B222" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C222" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D222" s="1">
-        <v>50000</v>
+        <v>116844</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>1951</v>
+        <v>2007</v>
       </c>
       <c r="B223" t="s">
         <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D223" s="1">
-        <v>25000</v>
+        <v>72693</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>1950</v>
+        <v>2006</v>
       </c>
       <c r="B224" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C224" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D224" s="1">
-        <v>14000</v>
+        <v>63788.999999999978</v>
       </c>
       <c r="E224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1950</v>
+        <v>2005</v>
       </c>
       <c r="B225" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C225" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D225" s="1">
-        <v>20000</v>
+        <v>151138.99971287217</v>
       </c>
       <c r="E225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1950</v>
+        <v>2004</v>
       </c>
       <c r="B226" t="s">
         <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D226" s="1">
-        <v>10000</v>
+        <v>150443</v>
       </c>
       <c r="E226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1949</v>
+        <v>2003</v>
       </c>
       <c r="B227" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C227" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D227" s="1">
-        <v>30000</v>
+        <v>188907.99999999994</v>
       </c>
       <c r="E227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+      <c r="F227" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1949</v>
+        <v>2002</v>
       </c>
       <c r="B228" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D228" s="1">
-        <v>50418</v>
+        <v>220189.00000000015</v>
       </c>
       <c r="E228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1948</v>
+        <v>2001</v>
       </c>
       <c r="B229" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D229" s="1">
-        <v>7000</v>
+        <v>371518</v>
       </c>
       <c r="E229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1948</v>
+        <v>2000</v>
       </c>
       <c r="B230" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D230" s="1">
-        <v>4167</v>
+        <v>126339.00000000004</v>
       </c>
       <c r="E230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1947</v>
+        <v>1999</v>
       </c>
       <c r="B231" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C231" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D231" s="1">
-        <v>7000</v>
+        <v>169635.93442580631</v>
       </c>
       <c r="E231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1947</v>
+        <v>1998</v>
       </c>
       <c r="B232" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D232" s="1">
-        <v>5900</v>
+        <v>274014.00000000006</v>
       </c>
       <c r="E232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1946</v>
+        <v>1997</v>
       </c>
       <c r="B233" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D233" s="1">
-        <v>14000</v>
+        <v>131888</v>
       </c>
       <c r="E233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1946</v>
+        <v>1996</v>
       </c>
       <c r="B234" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D234" s="1">
-        <v>5986</v>
+        <v>255498.00000000003</v>
       </c>
       <c r="E234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1945</v>
+        <v>1995</v>
       </c>
       <c r="B235" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C235" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D235" s="1">
-        <v>14000</v>
+        <v>102399.99999999997</v>
       </c>
       <c r="E235">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1945</v>
+        <v>1994</v>
       </c>
       <c r="B236" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C236" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D236" s="1">
-        <v>26245</v>
+        <v>143770.00000000003</v>
       </c>
       <c r="E236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1944</v>
+        <v>1993</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C237" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D237" s="1">
-        <v>5000</v>
+        <v>205288.99999999997</v>
       </c>
       <c r="E237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1944</v>
+        <v>1992</v>
       </c>
       <c r="B238" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C238" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D238" s="1">
-        <v>4537</v>
+        <v>221937.99999999994</v>
       </c>
       <c r="E238">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1943</v>
+        <v>1991</v>
       </c>
       <c r="B239" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C239" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D239" s="1">
-        <v>5000</v>
+        <v>209474.99999999997</v>
       </c>
       <c r="E239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1943</v>
+        <v>1990</v>
       </c>
       <c r="B240" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D240" s="1">
-        <v>5421</v>
+        <v>112790.00000000003</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1942</v>
+        <v>1989</v>
       </c>
       <c r="B241" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C241" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D241" s="1">
-        <v>7000</v>
+        <v>167987.00000000006</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>1942</v>
+        <v>1988</v>
       </c>
       <c r="B242" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D242" s="1">
-        <v>15823</v>
+        <v>235417</v>
       </c>
       <c r="E242">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>1941</v>
+        <v>1987</v>
       </c>
       <c r="B243" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C243" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D243" s="1">
-        <v>2000</v>
+        <v>151834.99999999997</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>1941</v>
+        <v>1986</v>
       </c>
       <c r="B244" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D244" s="1">
-        <v>14625</v>
+        <v>192941.00000000003</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>1940</v>
+        <v>1985</v>
       </c>
       <c r="B245" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C245" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D245" s="1">
-        <v>60000</v>
+        <v>146951</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>1940</v>
+        <v>1984</v>
       </c>
       <c r="B246" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D246" s="1">
-        <v>2936</v>
+        <v>89100</v>
       </c>
       <c r="E246">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>1939</v>
+        <v>1983</v>
       </c>
       <c r="B247" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C247" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D247" s="1">
-        <v>14000</v>
+        <v>257410</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>1939</v>
+        <v>1982</v>
       </c>
       <c r="B248" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D248" s="1">
-        <v>3119</v>
+        <v>248700.00000000003</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>1938</v>
+        <v>1981</v>
       </c>
       <c r="B249" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C249" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D249" s="1">
-        <v>10000</v>
+        <v>139251</v>
       </c>
       <c r="E249">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>1938</v>
+        <v>1980</v>
       </c>
       <c r="B250" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C250" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D250" s="1">
-        <v>5894</v>
+        <v>137990</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>1937</v>
+        <v>1979</v>
       </c>
       <c r="B251" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C251" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D251" s="1">
-        <v>38000</v>
+        <v>76445.999999999985</v>
       </c>
       <c r="E251">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>1937</v>
+        <v>1978</v>
       </c>
       <c r="B252" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C252" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D252" s="1">
-        <v>7365</v>
+        <v>37500</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>1936</v>
+        <v>1977</v>
       </c>
       <c r="B253" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C253" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="D253" s="1">
-        <v>2000</v>
+        <v>80799.999999999985</v>
       </c>
       <c r="E253">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>1936</v>
+        <v>1976</v>
       </c>
       <c r="B254" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
         <v>80</v>
       </c>
       <c r="D254" s="1">
-        <v>12206</v>
+        <v>47700</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -36040,448 +36035,444 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>1935</v>
+        <v>1975</v>
       </c>
       <c r="B255" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C255" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D255" s="1">
-        <v>45000</v>
+        <v>47500</v>
       </c>
       <c r="E255">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1935</v>
+        <v>1974</v>
       </c>
       <c r="B256" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C256" t="s">
         <v>80</v>
       </c>
       <c r="D256" s="1">
-        <v>5953</v>
+        <v>35800</v>
       </c>
       <c r="E256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <v>1934</v>
+        <v>1973</v>
       </c>
       <c r="B257" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C257" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D257" s="1">
-        <v>15000</v>
+        <v>45600</v>
       </c>
       <c r="E257">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>1934</v>
+        <v>1972</v>
       </c>
       <c r="B258" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="s">
         <v>80</v>
       </c>
       <c r="D258" s="1">
-        <v>4858</v>
+        <v>42600</v>
       </c>
       <c r="E258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>1933</v>
+        <v>1971</v>
       </c>
       <c r="B259" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C259" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D259" s="1">
-        <v>7500</v>
+        <v>25000</v>
       </c>
       <c r="E259">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>1933</v>
+        <v>1970</v>
       </c>
       <c r="B260" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C260" t="s">
         <v>80</v>
       </c>
       <c r="D260" s="1">
-        <v>1706</v>
+        <v>18000</v>
       </c>
       <c r="E260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1932</v>
+        <v>1969</v>
       </c>
       <c r="B261" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C261" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D261" s="1">
-        <v>35000</v>
+        <v>24000</v>
       </c>
       <c r="E261">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>1932</v>
+        <v>1968</v>
       </c>
       <c r="B262" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C262" t="s">
         <v>80</v>
       </c>
       <c r="D262" s="1">
-        <v>2472</v>
+        <v>29000</v>
       </c>
       <c r="E262">
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>1931</v>
+        <v>1967</v>
       </c>
       <c r="B263" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C263" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D263" s="1">
-        <v>50000</v>
+        <v>22000</v>
       </c>
       <c r="E263">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>1931</v>
+        <v>1966</v>
       </c>
       <c r="B264" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C264" t="s">
         <v>80</v>
       </c>
       <c r="D264" s="1">
-        <v>6920</v>
+        <v>28000</v>
       </c>
       <c r="E264">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1930</v>
+        <v>1965</v>
       </c>
       <c r="B265" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C265" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D265" s="1">
-        <v>40000</v>
+        <v>15000</v>
       </c>
       <c r="E265">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>1930</v>
+        <v>1964</v>
       </c>
       <c r="B266" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="s">
         <v>80</v>
       </c>
       <c r="D266" s="1">
-        <v>9501</v>
+        <v>13000</v>
       </c>
       <c r="E266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>1929</v>
+        <v>1963</v>
       </c>
       <c r="B267" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D267" s="1">
-        <v>135000</v>
+        <v>26000</v>
       </c>
       <c r="E267">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1929</v>
+        <v>1962</v>
       </c>
       <c r="B268" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="s">
         <v>80</v>
       </c>
       <c r="D268" s="1">
-        <v>3018</v>
+        <v>15000</v>
       </c>
       <c r="E268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>1928</v>
+        <v>1961</v>
       </c>
       <c r="B269" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C269" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D269" s="1">
-        <v>70000</v>
+        <v>18000</v>
       </c>
       <c r="E269">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1927</v>
+        <v>1960</v>
       </c>
       <c r="B270" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C270" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D270" s="1">
-        <v>70000</v>
+        <v>20000</v>
       </c>
       <c r="E270">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>1926</v>
+        <v>1959</v>
       </c>
       <c r="B271" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C271" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D271" s="1">
-        <v>65000</v>
+        <v>20000</v>
       </c>
       <c r="E271">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>1926</v>
+        <v>1958</v>
       </c>
       <c r="B272" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D272" s="1">
-        <v>10695</v>
+        <v>20000</v>
       </c>
       <c r="E272">
-        <f>(11000-D272)/D272</f>
-        <v>2.8517999064983639E-2</v>
-      </c>
-      <c r="F272" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1925</v>
+        <v>1957</v>
       </c>
       <c r="B273" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C273" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D273" s="1">
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="E273">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <v>1924</v>
+        <v>1956</v>
       </c>
       <c r="B274" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C274" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D274" s="1">
-        <v>120000</v>
+        <v>5000</v>
       </c>
       <c r="E274">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>1923</v>
+        <v>1955</v>
       </c>
       <c r="B275" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C275" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D275" s="1">
-        <v>90000</v>
+        <v>10000</v>
       </c>
       <c r="E275">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>1922</v>
+        <v>1954</v>
       </c>
       <c r="B276" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C276" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D276" s="1">
-        <v>70000</v>
+        <v>15000</v>
       </c>
       <c r="E276">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>1921</v>
+        <v>1953</v>
       </c>
       <c r="B277" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C277" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D277" s="1">
-        <v>1000</v>
+        <v>20000</v>
       </c>
       <c r="E277">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>1920</v>
+        <v>1952</v>
       </c>
       <c r="B278" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D278" s="1">
-        <v>38000</v>
+        <v>10000</v>
       </c>
       <c r="E278">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1919</v>
+        <v>1951</v>
       </c>
       <c r="B279" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D279" s="1">
-        <v>8000</v>
+        <v>25000</v>
       </c>
       <c r="E279">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>1918</v>
+        <v>1950</v>
       </c>
       <c r="B280" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="C280" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D280" s="1">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="E280">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -36496,8 +36487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116A4842-63E3-4614-A73E-CB32DDB2B86D}">
   <dimension ref="A1:K248"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37020,9 +37011,6 @@
       <c r="F26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K26" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -37043,9 +37031,6 @@
       <c r="F27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K27" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -37066,9 +37051,7 @@
       <c r="F28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>133</v>
-      </c>
+      <c r="K28" s="8"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -37089,9 +37072,7 @@
       <c r="F29">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K29" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -37473,7 +37454,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2008</v>
       </c>
@@ -37493,7 +37474,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2008</v>
       </c>
@@ -37513,7 +37494,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2007</v>
       </c>
@@ -37532,11 +37513,8 @@
       <c r="F51">
         <v>0.15</v>
       </c>
-      <c r="G51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2007</v>
       </c>
@@ -37555,11 +37533,8 @@
       <c r="F52">
         <v>0.15</v>
       </c>
-      <c r="G52" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2007</v>
       </c>
@@ -37578,11 +37553,8 @@
       <c r="F53">
         <v>0.15</v>
       </c>
-      <c r="G53" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2006</v>
       </c>
@@ -37601,11 +37573,8 @@
       <c r="F54">
         <v>0.15</v>
       </c>
-      <c r="G54" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2006</v>
       </c>
@@ -37624,11 +37593,8 @@
       <c r="F55">
         <v>0.15</v>
       </c>
-      <c r="G55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2006</v>
       </c>
@@ -37647,11 +37613,8 @@
       <c r="F56">
         <v>0.15</v>
       </c>
-      <c r="G56" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2005</v>
       </c>
@@ -37670,11 +37633,8 @@
       <c r="F57">
         <v>0.15</v>
       </c>
-      <c r="G57" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -37693,11 +37653,8 @@
       <c r="F58">
         <v>0.15</v>
       </c>
-      <c r="G58" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2005</v>
       </c>
@@ -37716,11 +37673,8 @@
       <c r="F59">
         <v>0.15</v>
       </c>
-      <c r="G59" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2004</v>
       </c>
@@ -37739,11 +37693,8 @@
       <c r="F60">
         <v>0.15</v>
       </c>
-      <c r="G60" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2004</v>
       </c>
@@ -37762,11 +37713,8 @@
       <c r="F61">
         <v>0.15</v>
       </c>
-      <c r="G61" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2004</v>
       </c>
@@ -37785,11 +37733,8 @@
       <c r="F62">
         <v>0.15</v>
       </c>
-      <c r="G62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2003</v>
       </c>
@@ -37808,11 +37753,8 @@
       <c r="F63">
         <v>0.15</v>
       </c>
-      <c r="G63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2003</v>
       </c>
@@ -37831,11 +37773,8 @@
       <c r="F64">
         <v>0.15</v>
       </c>
-      <c r="G64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2003</v>
       </c>
@@ -37854,11 +37793,8 @@
       <c r="F65">
         <v>0.15</v>
       </c>
-      <c r="G65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2002</v>
       </c>
@@ -37877,11 +37813,8 @@
       <c r="F66">
         <v>0.15</v>
       </c>
-      <c r="G66" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2002</v>
       </c>
@@ -37900,11 +37833,8 @@
       <c r="F67">
         <v>0.15</v>
       </c>
-      <c r="G67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2002</v>
       </c>
@@ -37923,11 +37853,8 @@
       <c r="F68">
         <v>0.15</v>
       </c>
-      <c r="G68" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2001</v>
       </c>
@@ -37946,11 +37873,8 @@
       <c r="F69">
         <v>0.15</v>
       </c>
-      <c r="G69" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2001</v>
       </c>
@@ -37969,11 +37893,8 @@
       <c r="F70">
         <v>0.15</v>
       </c>
-      <c r="G70" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2001</v>
       </c>
@@ -37992,11 +37913,8 @@
       <c r="F71">
         <v>0.15</v>
       </c>
-      <c r="G71" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2000</v>
       </c>
@@ -38015,11 +37933,8 @@
       <c r="F72">
         <v>0.15</v>
       </c>
-      <c r="G72" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2000</v>
       </c>
@@ -38038,11 +37953,8 @@
       <c r="F73">
         <v>0.15</v>
       </c>
-      <c r="G73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2000</v>
       </c>
@@ -38061,11 +37973,8 @@
       <c r="F74">
         <v>0.15</v>
       </c>
-      <c r="G74" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1999</v>
       </c>
@@ -38084,11 +37993,8 @@
       <c r="F75">
         <v>0.15</v>
       </c>
-      <c r="G75" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1999</v>
       </c>
@@ -38107,11 +38013,8 @@
       <c r="F76">
         <v>0.15</v>
       </c>
-      <c r="G76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1999</v>
       </c>
@@ -38130,11 +38033,8 @@
       <c r="F77">
         <v>0.15</v>
       </c>
-      <c r="G77" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1998</v>
       </c>
@@ -38153,11 +38053,8 @@
       <c r="F78">
         <v>0.15</v>
       </c>
-      <c r="G78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1998</v>
       </c>
@@ -38176,11 +38073,8 @@
       <c r="F79">
         <v>0.15</v>
       </c>
-      <c r="G79" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1998</v>
       </c>
@@ -38199,11 +38093,8 @@
       <c r="F80">
         <v>0.15</v>
       </c>
-      <c r="G80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1997</v>
       </c>
@@ -38222,11 +38113,8 @@
       <c r="F81">
         <v>0.15</v>
       </c>
-      <c r="G81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1997</v>
       </c>
@@ -38245,11 +38133,8 @@
       <c r="F82">
         <v>0.15</v>
       </c>
-      <c r="G82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1997</v>
       </c>
@@ -38268,11 +38153,8 @@
       <c r="F83">
         <v>0.15</v>
       </c>
-      <c r="G83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1996</v>
       </c>
@@ -38292,7 +38174,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1996</v>
       </c>
@@ -38312,7 +38194,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1996</v>
       </c>
@@ -38332,7 +38214,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1995</v>
       </c>
@@ -38352,7 +38234,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1995</v>
       </c>
@@ -38372,7 +38254,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1995</v>
       </c>
@@ -38392,7 +38274,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1994</v>
       </c>
@@ -38412,7 +38294,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1994</v>
       </c>
@@ -38432,7 +38314,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1994</v>
       </c>
@@ -38452,7 +38334,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1993</v>
       </c>
@@ -38472,7 +38354,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1993</v>
       </c>
@@ -38492,7 +38374,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1993</v>
       </c>
@@ -38512,7 +38394,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1992</v>
       </c>
@@ -39492,7 +39374,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1976</v>
       </c>
@@ -39512,7 +39394,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1976</v>
       </c>
@@ -39532,7 +39414,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1975</v>
       </c>
@@ -39552,7 +39434,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1975</v>
       </c>
@@ -39572,7 +39454,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1975</v>
       </c>
@@ -39592,7 +39474,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1974</v>
       </c>
@@ -39612,7 +39494,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1974</v>
       </c>
@@ -39632,7 +39514,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1974</v>
       </c>
@@ -39652,7 +39534,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1973</v>
       </c>
@@ -39672,7 +39554,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1973</v>
       </c>
@@ -39691,11 +39573,8 @@
       <c r="F154">
         <v>0.25</v>
       </c>
-      <c r="K154" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1973</v>
       </c>
@@ -39715,7 +39594,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1972</v>
       </c>
@@ -39735,7 +39614,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1972</v>
       </c>
@@ -39755,7 +39634,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1972</v>
       </c>
@@ -39775,7 +39654,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1971</v>
       </c>
@@ -39795,7 +39674,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1971</v>
       </c>
@@ -41142,10 +41021,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" t="s">
         <v>110</v>
-      </c>
-      <c r="D1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -41156,7 +41035,7 @@
         <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2">
         <v>2473</v>
@@ -41170,7 +41049,7 @@
         <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>2487</v>
@@ -41184,7 +41063,7 @@
         <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4">
         <v>1774</v>
@@ -41198,7 +41077,7 @@
         <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5">
         <v>2072</v>
@@ -41212,7 +41091,7 @@
         <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D6">
         <v>1507</v>
@@ -41226,7 +41105,7 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>598</v>
@@ -41240,7 +41119,7 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>572</v>
@@ -41254,7 +41133,7 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>2517</v>
@@ -41268,7 +41147,7 @@
         <v>107</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10">
         <v>1686</v>
@@ -41282,7 +41161,7 @@
         <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11">
         <v>1490</v>
@@ -41296,7 +41175,7 @@
         <v>107</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12">
         <v>2525</v>
@@ -41310,7 +41189,7 @@
         <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13">
         <v>2937</v>
@@ -41324,7 +41203,7 @@
         <v>107</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D14">
         <v>2484</v>
@@ -41338,7 +41217,7 @@
         <v>107</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>1846</v>
@@ -41352,7 +41231,7 @@
         <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D16">
         <v>1202</v>
@@ -41366,7 +41245,7 @@
         <v>107</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D17">
         <v>2357</v>
@@ -41380,7 +41259,7 @@
         <v>107</v>
       </c>
       <c r="C18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18">
         <v>2880</v>
@@ -41394,7 +41273,7 @@
         <v>107</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19">
         <v>2074</v>
@@ -41408,7 +41287,7 @@
         <v>107</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20">
         <v>5915</v>
@@ -41422,7 +41301,7 @@
         <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21">
         <v>1647</v>
@@ -41436,7 +41315,7 @@
         <v>107</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D22">
         <v>3847</v>
@@ -41450,7 +41329,7 @@
         <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D23">
         <v>5046</v>
@@ -41464,7 +41343,7 @@
         <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D24">
         <v>4170</v>
@@ -41478,7 +41357,7 @@
         <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>2914</v>
@@ -41492,7 +41371,7 @@
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D26">
         <v>2952</v>
@@ -41506,7 +41385,7 @@
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D27">
         <v>1879</v>
@@ -41520,7 +41399,7 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D28">
         <v>1329</v>
@@ -41534,7 +41413,7 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D29">
         <v>1014</v>
@@ -41548,7 +41427,7 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D30">
         <v>2282</v>
@@ -41562,7 +41441,7 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31">
         <v>4573</v>
@@ -41576,7 +41455,7 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D32">
         <v>3317</v>
@@ -41590,7 +41469,7 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D33">
         <v>3146</v>
@@ -41604,7 +41483,7 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D34">
         <v>2551</v>
@@ -41618,7 +41497,7 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35">
         <v>4628</v>
@@ -41632,7 +41511,7 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36">
         <v>6040</v>
@@ -41646,7 +41525,7 @@
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D37">
         <v>4206</v>
@@ -41660,7 +41539,7 @@
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D38">
         <v>3359</v>
@@ -41674,7 +41553,7 @@
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>2348</v>
@@ -41688,7 +41567,7 @@
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40">
         <v>2556</v>
@@ -41702,7 +41581,7 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D41">
         <v>1892</v>
@@ -41716,7 +41595,7 @@
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42">
         <v>3902</v>
@@ -41730,7 +41609,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43">
         <v>1688</v>
@@ -41744,7 +41623,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D44">
         <v>753</v>
@@ -41758,7 +41637,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45">
         <v>2569</v>
@@ -41772,7 +41651,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46">
         <v>1908</v>
@@ -41786,7 +41665,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D47">
         <v>1571</v>
@@ -41800,7 +41679,7 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D48">
         <v>3047</v>
@@ -41818,15 +41697,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000614419EC33FAD42A0282CFF32600A20" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b94ec4c5b022f3c1dd5ef88a1c70be4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d4f3f700-51b4-43ff-b002-6ed848604d46" xmlns:ns3="01f01bef-47b7-4725-adaf-9b6a8bd74ef4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0d993d6f0fe140b5b27b8bdb1a11ff43" ns2:_="" ns3:_="">
     <xsd:import namespace="d4f3f700-51b4-43ff-b002-6ed848604d46"/>
@@ -42035,6 +41905,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AD2C85-521D-4770-88CD-9DAE105CB1B6}">
   <ds:schemaRefs>
@@ -42045,14 +41924,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83F8A5F1-9F5C-410C-A02F-9F6149407001}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42069,4 +41940,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/1. data/Barkley Sockeye time series of returns.xlsx
+++ b/1. data/Barkley Sockeye time series of returns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://086gc.sharepoint.com/sites/SalmonScienceStrategy-salmonFSAR/Shared Documents/salmon FSAR - sprint week/Barkley Sockeye/3. Data/Stock-recruit data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownn\Documents\WCVI\Barkley-Sk-CSAS\1. data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1398" documentId="13_ncr:1_{3A0DAE0A-5A1E-485E-89C6-BA3AF7C7CFF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D00BE6DA-1ACC-4167-8E7F-2DA45A998618}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE95A21-445E-4344-BC76-B8A2495BC56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="15480" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data sources notes" sheetId="5" r:id="rId1"/>
@@ -1108,8 +1108,8 @@
   <dimension ref="A1:L689"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A661" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E684" sqref="E684:E689"/>
+      <pane ySplit="1" topLeftCell="A664" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E678" activeCellId="5" sqref="E679 E681 E682 E683 E680 E678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31649,8 +31649,8 @@
   <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H193" sqref="H193"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31689,6 +31689,9 @@
       </c>
       <c r="C2" t="s">
         <v>57</v>
+      </c>
+      <c r="D2">
+        <v>373659</v>
       </c>
       <c r="E2">
         <v>0.05</v>
@@ -41691,9 +41694,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41906,19 +41912,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AD2C85-521D-4770-88CD-9DAE105CB1B6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -41943,9 +41945,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{729962EC-F35D-459B-8881-4F6AA84AC69F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AD2C85-521D-4770-88CD-9DAE105CB1B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>